--- a/sisaprop/data/msemanal.xlsx
+++ b/sisaprop/data/msemanal.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Sábado e Domingo'!$A$1:$AN$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Segunda a Sexta'!$A$1:$AN$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Segunda a Sexta'!$A$1:$AM$60</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>FA</t>
   </si>
@@ -1749,7 +1749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2104,19 +2104,427 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2170,19 +2578,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2210,19 +2606,10 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2241,355 +2628,31 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2597,60 +2660,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2957,2145 +2966,2097 @@
     <tabColor rgb="FFFFFF99"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BH60"/>
+  <dimension ref="A1:BG60"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="6" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="18" width="7" customWidth="1"/>
-    <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="21" width="2.7109375" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" customWidth="1"/>
-    <col min="23" max="23" width="1.28515625" customWidth="1"/>
-    <col min="24" max="40" width="7" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="5" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="19" max="20" width="2.7109375" customWidth="1"/>
+    <col min="21" max="21" width="3.28515625" customWidth="1"/>
+    <col min="22" max="22" width="1.28515625" customWidth="1"/>
+    <col min="23" max="39" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="240" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="101" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="117" t="s">
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="120" t="s">
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="249"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="122" t="s">
+      <c r="V1" s="250"/>
+      <c r="W1" s="250"/>
+      <c r="X1" s="250"/>
+      <c r="Y1" s="250"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="251"/>
+      <c r="AB1" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="124"/>
-    </row>
-    <row r="2" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="7"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
+      <c r="AL1" s="145"/>
+      <c r="AM1" s="146"/>
+    </row>
+    <row r="2" spans="1:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="257"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="83"/>
       <c r="V2" s="83"/>
       <c r="W2" s="83"/>
       <c r="X2" s="83"/>
       <c r="Y2" s="83"/>
       <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="127"/>
-    </row>
-    <row r="3" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="115"/>
+    </row>
+    <row r="3" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="243"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
       <c r="N3" s="73"/>
       <c r="O3" s="73"/>
       <c r="P3" s="73"/>
       <c r="Q3" s="73"/>
       <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="7"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="75"/>
       <c r="V3" s="75"/>
       <c r="W3" s="75"/>
       <c r="X3" s="75"/>
       <c r="Y3" s="75"/>
       <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="126"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="126"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="127"/>
-    </row>
-    <row r="4" spans="1:40" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="138" t="s">
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="115"/>
+    </row>
+    <row r="4" spans="1:39" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="243"/>
+      <c r="B4" s="244"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="127"/>
-    </row>
-    <row r="5" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="2"/>
+      <c r="X4" s="210"/>
+      <c r="Y4" s="210"/>
+      <c r="Z4" s="210"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="253"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="115"/>
+    </row>
+    <row r="5" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="243"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="69"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="266"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="267"/>
+      <c r="P5" s="268"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="266"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="W5" s="65"/>
       <c r="X5" s="65"/>
       <c r="Y5" s="65"/>
       <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="101" t="s">
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="233" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="102"/>
-      <c r="AJ5" s="102"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="103"/>
-    </row>
-    <row r="6" spans="1:40" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="104" t="s">
+      <c r="AC5" s="234"/>
+      <c r="AD5" s="234"/>
+      <c r="AE5" s="234"/>
+      <c r="AF5" s="234"/>
+      <c r="AG5" s="234"/>
+      <c r="AH5" s="234"/>
+      <c r="AI5" s="234"/>
+      <c r="AJ5" s="234"/>
+      <c r="AK5" s="234"/>
+      <c r="AL5" s="234"/>
+      <c r="AM5" s="235"/>
+    </row>
+    <row r="6" spans="1:39" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="243"/>
+      <c r="B6" s="244"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="245"/>
+      <c r="E6" s="207" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="137"/>
-      <c r="S6" s="137"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="138" t="s">
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
+      <c r="K6" s="209"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="262"/>
+      <c r="N6" s="262"/>
+      <c r="O6" s="262"/>
+      <c r="P6" s="262"/>
+      <c r="Q6" s="262"/>
+      <c r="R6" s="262"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="139"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="106"/>
-    </row>
-    <row r="7" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="66"/>
+      <c r="X6" s="210"/>
+      <c r="Y6" s="210"/>
+      <c r="Z6" s="210"/>
+      <c r="AA6" s="211"/>
+      <c r="AB6" s="207"/>
+      <c r="AC6" s="208"/>
+      <c r="AD6" s="208"/>
+      <c r="AE6" s="208"/>
+      <c r="AF6" s="208"/>
+      <c r="AG6" s="208"/>
+      <c r="AH6" s="208"/>
+      <c r="AI6" s="208"/>
+      <c r="AJ6" s="208"/>
+      <c r="AK6" s="208"/>
+      <c r="AL6" s="208"/>
+      <c r="AM6" s="236"/>
+    </row>
+    <row r="7" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="243"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
       <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="140"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="7"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="263"/>
+      <c r="N7" s="264"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="265"/>
+      <c r="R7" s="263"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="65"/>
       <c r="X7" s="65"/>
       <c r="Y7" s="65"/>
       <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="106"/>
-    </row>
-    <row r="8" spans="1:40" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="104" t="s">
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="207"/>
+      <c r="AC7" s="208"/>
+      <c r="AD7" s="208"/>
+      <c r="AE7" s="208"/>
+      <c r="AF7" s="208"/>
+      <c r="AG7" s="208"/>
+      <c r="AH7" s="208"/>
+      <c r="AI7" s="208"/>
+      <c r="AJ7" s="208"/>
+      <c r="AK7" s="208"/>
+      <c r="AL7" s="208"/>
+      <c r="AM7" s="236"/>
+    </row>
+    <row r="8" spans="1:39" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="243"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="138" t="s">
+      <c r="S8" s="17"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="Y8" s="138"/>
-      <c r="Z8" s="138"/>
-      <c r="AA8" s="138"/>
-      <c r="AB8" s="139"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="106"/>
-    </row>
-    <row r="9" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="69"/>
+      <c r="X8" s="210"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210"/>
+      <c r="AA8" s="211"/>
+      <c r="AB8" s="207"/>
+      <c r="AC8" s="208"/>
+      <c r="AD8" s="208"/>
+      <c r="AE8" s="208"/>
+      <c r="AF8" s="208"/>
+      <c r="AG8" s="208"/>
+      <c r="AH8" s="208"/>
+      <c r="AI8" s="208"/>
+      <c r="AJ8" s="208"/>
+      <c r="AK8" s="208"/>
+      <c r="AL8" s="208"/>
+      <c r="AM8" s="236"/>
+    </row>
+    <row r="9" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="243"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="208"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="212"/>
+      <c r="M9" s="213"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="213"/>
+      <c r="P9" s="213"/>
+      <c r="Q9" s="213"/>
+      <c r="R9" s="213"/>
+      <c r="S9" s="214"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="138"/>
-      <c r="AA9" s="138"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="108"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="108"/>
-      <c r="AM9" s="108"/>
-      <c r="AN9" s="109"/>
-    </row>
-    <row r="10" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="149"/>
-      <c r="B10" s="268" t="s">
+      <c r="W9" s="210"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="210"/>
+      <c r="Z9" s="210"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="237"/>
+      <c r="AC9" s="238"/>
+      <c r="AD9" s="238"/>
+      <c r="AE9" s="238"/>
+      <c r="AF9" s="238"/>
+      <c r="AG9" s="238"/>
+      <c r="AH9" s="238"/>
+      <c r="AI9" s="238"/>
+      <c r="AJ9" s="238"/>
+      <c r="AK9" s="238"/>
+      <c r="AL9" s="238"/>
+      <c r="AM9" s="239"/>
+    </row>
+    <row r="10" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="215"/>
+      <c r="B10" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="152" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="155" t="s">
+      <c r="C10" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="D10" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="158"/>
-      <c r="G10" s="163" t="s">
+      <c r="E10" s="224"/>
+      <c r="F10" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="163" t="s">
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="165"/>
-      <c r="U10" s="163" t="s">
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="164"/>
-      <c r="AB10" s="165"/>
-      <c r="AC10" s="163" t="s">
+      <c r="U10" s="194"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="195"/>
+      <c r="AB10" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="164"/>
-      <c r="AH10" s="165"/>
-      <c r="AI10" s="163" t="s">
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="194"/>
+      <c r="AF10" s="194"/>
+      <c r="AG10" s="195"/>
+      <c r="AH10" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="AJ10" s="164"/>
-      <c r="AK10" s="164"/>
-      <c r="AL10" s="164"/>
-      <c r="AM10" s="164"/>
-      <c r="AN10" s="176"/>
-    </row>
-    <row r="11" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="150"/>
-      <c r="B11" s="269"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="177">
+      <c r="AI10" s="194"/>
+      <c r="AJ10" s="194"/>
+      <c r="AK10" s="194"/>
+      <c r="AL10" s="194"/>
+      <c r="AM10" s="196"/>
+    </row>
+    <row r="11" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="216"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="197">
         <v>36892</v>
       </c>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="177">
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="197">
         <v>36892</v>
       </c>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
-      <c r="P11" s="178"/>
-      <c r="Q11" s="178"/>
-      <c r="R11" s="178"/>
-      <c r="S11" s="178"/>
-      <c r="T11" s="179"/>
-      <c r="U11" s="177">
+      <c r="M11" s="198"/>
+      <c r="N11" s="198"/>
+      <c r="O11" s="198"/>
+      <c r="P11" s="198"/>
+      <c r="Q11" s="198"/>
+      <c r="R11" s="198"/>
+      <c r="S11" s="199"/>
+      <c r="T11" s="197">
         <v>36892</v>
       </c>
-      <c r="V11" s="178"/>
-      <c r="W11" s="178"/>
-      <c r="X11" s="178"/>
-      <c r="Y11" s="178"/>
-      <c r="Z11" s="178"/>
-      <c r="AA11" s="178"/>
-      <c r="AB11" s="179"/>
-      <c r="AC11" s="177">
+      <c r="U11" s="198"/>
+      <c r="V11" s="198"/>
+      <c r="W11" s="198"/>
+      <c r="X11" s="198"/>
+      <c r="Y11" s="198"/>
+      <c r="Z11" s="198"/>
+      <c r="AA11" s="199"/>
+      <c r="AB11" s="197">
         <v>36892</v>
       </c>
-      <c r="AD11" s="178"/>
-      <c r="AE11" s="178"/>
-      <c r="AF11" s="178"/>
-      <c r="AG11" s="178"/>
-      <c r="AH11" s="179"/>
-      <c r="AI11" s="177">
+      <c r="AC11" s="198"/>
+      <c r="AD11" s="198"/>
+      <c r="AE11" s="198"/>
+      <c r="AF11" s="198"/>
+      <c r="AG11" s="199"/>
+      <c r="AH11" s="197">
         <v>36892</v>
       </c>
-      <c r="AJ11" s="178"/>
-      <c r="AK11" s="178"/>
-      <c r="AL11" s="178"/>
-      <c r="AM11" s="178"/>
-      <c r="AN11" s="180"/>
-    </row>
-    <row r="12" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="150"/>
-      <c r="B12" s="269"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="174" t="s">
+      <c r="AI11" s="198"/>
+      <c r="AJ11" s="198"/>
+      <c r="AK11" s="198"/>
+      <c r="AL11" s="198"/>
+      <c r="AM11" s="200"/>
+    </row>
+    <row r="12" spans="1:39" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="216"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="225"/>
+      <c r="F12" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="161" t="s">
+      <c r="G12" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="161" t="s">
+      <c r="H12" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="161" t="s">
+      <c r="I12" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="161" t="s">
+      <c r="J12" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="161" t="s">
+      <c r="K12" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="174" t="str">
+      <c r="L12" s="191" t="str">
+        <f>F12</f>
+        <v>##NOME1##</v>
+      </c>
+      <c r="M12" s="187"/>
+      <c r="N12" s="185" t="str">
         <f>G12</f>
-        <v>##NOME1##</v>
-      </c>
-      <c r="N12" s="161"/>
+        <v>##NOME2##</v>
+      </c>
       <c r="O12" s="187" t="str">
         <f>H12</f>
+        <v>##NOME3##</v>
+      </c>
+      <c r="P12" s="187" t="str">
+        <f>I12</f>
+        <v>##NOME4##</v>
+      </c>
+      <c r="Q12" s="187" t="str">
+        <f>J12</f>
+        <v>##NOME5##</v>
+      </c>
+      <c r="R12" s="187" t="str">
+        <f>K12</f>
+        <v>##NOME6##</v>
+      </c>
+      <c r="S12" s="189"/>
+      <c r="T12" s="191" t="str">
+        <f>F12</f>
+        <v>##NOME1##</v>
+      </c>
+      <c r="U12" s="187"/>
+      <c r="V12" s="187"/>
+      <c r="W12" s="187" t="str">
+        <f>G12</f>
         <v>##NOME2##</v>
       </c>
-      <c r="P12" s="161" t="str">
+      <c r="X12" s="187" t="str">
+        <f>H12</f>
+        <v>##NOME3##</v>
+      </c>
+      <c r="Y12" s="187" t="str">
         <f>I12</f>
-        <v>##NOME3##</v>
-      </c>
-      <c r="Q12" s="161" t="str">
+        <v>##NOME4##</v>
+      </c>
+      <c r="Z12" s="187" t="str">
         <f>J12</f>
-        <v>##NOME4##</v>
-      </c>
-      <c r="R12" s="161" t="str">
+        <v>##NOME5##</v>
+      </c>
+      <c r="AA12" s="187" t="str">
         <f>K12</f>
-        <v>##NOME5##</v>
-      </c>
-      <c r="S12" s="161" t="str">
-        <f>L12</f>
         <v>##NOME6##</v>
       </c>
-      <c r="T12" s="189"/>
-      <c r="U12" s="174" t="str">
-        <f>G12</f>
+      <c r="AB12" s="201" t="str">
+        <f t="shared" ref="AB12:AG12" si="0">F12</f>
         <v>##NOME1##</v>
       </c>
-      <c r="V12" s="161"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161" t="str">
-        <f>H12</f>
-        <v>##NOME2##</v>
-      </c>
-      <c r="Y12" s="161" t="str">
-        <f>I12</f>
-        <v>##NOME3##</v>
-      </c>
-      <c r="Z12" s="161" t="str">
-        <f>J12</f>
-        <v>##NOME4##</v>
-      </c>
-      <c r="AA12" s="161" t="str">
-        <f>K12</f>
-        <v>##NOME5##</v>
-      </c>
-      <c r="AB12" s="161" t="str">
-        <f>L12</f>
-        <v>##NOME6##</v>
-      </c>
-      <c r="AC12" s="181" t="str">
-        <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>##NOME1##</v>
-      </c>
-      <c r="AD12" s="183" t="str">
+      <c r="AC12" s="203" t="str">
         <f t="shared" si="0"/>
         <v>##NOME2##</v>
       </c>
-      <c r="AE12" s="161" t="str">
+      <c r="AD12" s="187" t="str">
         <f t="shared" si="0"/>
         <v>##NOME3##</v>
       </c>
-      <c r="AF12" s="161" t="str">
+      <c r="AE12" s="187" t="str">
         <f t="shared" si="0"/>
         <v>##NOME4##</v>
       </c>
-      <c r="AG12" s="161" t="str">
+      <c r="AF12" s="187" t="str">
         <f t="shared" si="0"/>
         <v>##NOME5##</v>
       </c>
-      <c r="AH12" s="161" t="str">
+      <c r="AG12" s="187" t="str">
         <f t="shared" si="0"/>
         <v>##NOME6##</v>
       </c>
-      <c r="AI12" s="185" t="str">
-        <f t="shared" ref="AI12:AN12" si="1">G12</f>
+      <c r="AH12" s="205" t="str">
+        <f t="shared" ref="AH12:AM12" si="1">F12</f>
         <v>##NOME1##</v>
       </c>
-      <c r="AJ12" s="183" t="str">
+      <c r="AI12" s="203" t="str">
         <f t="shared" si="1"/>
         <v>##NOME2##</v>
       </c>
-      <c r="AK12" s="161" t="str">
+      <c r="AJ12" s="187" t="str">
         <f t="shared" si="1"/>
         <v>##NOME3##</v>
       </c>
-      <c r="AL12" s="161" t="str">
+      <c r="AK12" s="187" t="str">
         <f t="shared" si="1"/>
         <v>##NOME4##</v>
       </c>
-      <c r="AM12" s="161" t="str">
+      <c r="AL12" s="187" t="str">
         <f t="shared" si="1"/>
         <v>##NOME5##</v>
       </c>
-      <c r="AN12" s="161" t="str">
+      <c r="AM12" s="187" t="str">
         <f t="shared" si="1"/>
         <v>##NOME6##</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="150"/>
-      <c r="B13" s="269"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="162"/>
+    <row r="13" spans="1:39" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="216"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="186"/>
       <c r="O13" s="188"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="190"/>
-      <c r="U13" s="175"/>
-      <c r="V13" s="162"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="181"/>
-      <c r="AD13" s="183"/>
-      <c r="AE13" s="162"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="162"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="186"/>
-      <c r="AJ13" s="183"/>
-      <c r="AK13" s="162"/>
-      <c r="AL13" s="162"/>
-      <c r="AM13" s="162"/>
-      <c r="AN13" s="162"/>
-    </row>
-    <row r="14" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="150"/>
-      <c r="B14" s="269"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="162"/>
+      <c r="P13" s="188"/>
+      <c r="Q13" s="188"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="192"/>
+      <c r="U13" s="188"/>
+      <c r="V13" s="188"/>
+      <c r="W13" s="188"/>
+      <c r="X13" s="188"/>
+      <c r="Y13" s="188"/>
+      <c r="Z13" s="188"/>
+      <c r="AA13" s="188"/>
+      <c r="AB13" s="201"/>
+      <c r="AC13" s="203"/>
+      <c r="AD13" s="188"/>
+      <c r="AE13" s="188"/>
+      <c r="AF13" s="188"/>
+      <c r="AG13" s="188"/>
+      <c r="AH13" s="206"/>
+      <c r="AI13" s="203"/>
+      <c r="AJ13" s="188"/>
+      <c r="AK13" s="188"/>
+      <c r="AL13" s="188"/>
+      <c r="AM13" s="188"/>
+    </row>
+    <row r="14" spans="1:39" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="216"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="186"/>
       <c r="O14" s="188"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="190"/>
-      <c r="U14" s="175"/>
-      <c r="V14" s="162"/>
-      <c r="W14" s="162"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="162"/>
-      <c r="Z14" s="162"/>
-      <c r="AA14" s="162"/>
-      <c r="AB14" s="162"/>
-      <c r="AC14" s="181"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="162"/>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="162"/>
-      <c r="AH14" s="162"/>
-      <c r="AI14" s="186"/>
-      <c r="AJ14" s="183"/>
-      <c r="AK14" s="162"/>
-      <c r="AL14" s="162"/>
-      <c r="AM14" s="162"/>
-      <c r="AN14" s="162"/>
-    </row>
-    <row r="15" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="150"/>
-      <c r="B15" s="269"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="162"/>
+      <c r="P14" s="188"/>
+      <c r="Q14" s="188"/>
+      <c r="R14" s="188"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="192"/>
+      <c r="U14" s="188"/>
+      <c r="V14" s="188"/>
+      <c r="W14" s="188"/>
+      <c r="X14" s="188"/>
+      <c r="Y14" s="188"/>
+      <c r="Z14" s="188"/>
+      <c r="AA14" s="188"/>
+      <c r="AB14" s="201"/>
+      <c r="AC14" s="203"/>
+      <c r="AD14" s="188"/>
+      <c r="AE14" s="188"/>
+      <c r="AF14" s="188"/>
+      <c r="AG14" s="188"/>
+      <c r="AH14" s="206"/>
+      <c r="AI14" s="203"/>
+      <c r="AJ14" s="188"/>
+      <c r="AK14" s="188"/>
+      <c r="AL14" s="188"/>
+      <c r="AM14" s="188"/>
+    </row>
+    <row r="15" spans="1:39" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="216"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="186"/>
       <c r="O15" s="188"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="190"/>
-      <c r="U15" s="175"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="181"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="162"/>
-      <c r="AI15" s="186"/>
-      <c r="AJ15" s="183"/>
-      <c r="AK15" s="162"/>
-      <c r="AL15" s="162"/>
-      <c r="AM15" s="162"/>
-      <c r="AN15" s="162"/>
-    </row>
-    <row r="16" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="150"/>
-      <c r="B16" s="269"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="162"/>
+      <c r="P15" s="188"/>
+      <c r="Q15" s="188"/>
+      <c r="R15" s="188"/>
+      <c r="S15" s="190"/>
+      <c r="T15" s="192"/>
+      <c r="U15" s="188"/>
+      <c r="V15" s="188"/>
+      <c r="W15" s="188"/>
+      <c r="X15" s="188"/>
+      <c r="Y15" s="188"/>
+      <c r="Z15" s="188"/>
+      <c r="AA15" s="188"/>
+      <c r="AB15" s="201"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="188"/>
+      <c r="AE15" s="188"/>
+      <c r="AF15" s="188"/>
+      <c r="AG15" s="188"/>
+      <c r="AH15" s="206"/>
+      <c r="AI15" s="203"/>
+      <c r="AJ15" s="188"/>
+      <c r="AK15" s="188"/>
+      <c r="AL15" s="188"/>
+      <c r="AM15" s="188"/>
+    </row>
+    <row r="16" spans="1:39" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="216"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="225"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="186"/>
       <c r="O16" s="188"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="175"/>
-      <c r="V16" s="162"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="181"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="162"/>
-      <c r="AH16" s="162"/>
-      <c r="AI16" s="186"/>
-      <c r="AJ16" s="183"/>
-      <c r="AK16" s="162"/>
-      <c r="AL16" s="162"/>
-      <c r="AM16" s="162"/>
-      <c r="AN16" s="162"/>
-    </row>
-    <row r="17" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="150"/>
-      <c r="B17" s="269"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="162"/>
+      <c r="P16" s="188"/>
+      <c r="Q16" s="188"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="190"/>
+      <c r="T16" s="192"/>
+      <c r="U16" s="188"/>
+      <c r="V16" s="188"/>
+      <c r="W16" s="188"/>
+      <c r="X16" s="188"/>
+      <c r="Y16" s="188"/>
+      <c r="Z16" s="188"/>
+      <c r="AA16" s="188"/>
+      <c r="AB16" s="201"/>
+      <c r="AC16" s="203"/>
+      <c r="AD16" s="188"/>
+      <c r="AE16" s="188"/>
+      <c r="AF16" s="188"/>
+      <c r="AG16" s="188"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="203"/>
+      <c r="AJ16" s="188"/>
+      <c r="AK16" s="188"/>
+      <c r="AL16" s="188"/>
+      <c r="AM16" s="188"/>
+    </row>
+    <row r="17" spans="1:39" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="216"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="188"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="186"/>
       <c r="O17" s="188"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="190"/>
-      <c r="U17" s="175"/>
-      <c r="V17" s="162"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="162"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="162"/>
-      <c r="AC17" s="181"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="162"/>
-      <c r="AF17" s="162"/>
-      <c r="AG17" s="162"/>
-      <c r="AH17" s="162"/>
-      <c r="AI17" s="186"/>
-      <c r="AJ17" s="183"/>
-      <c r="AK17" s="162"/>
-      <c r="AL17" s="162"/>
-      <c r="AM17" s="162"/>
-      <c r="AN17" s="162"/>
-    </row>
-    <row r="18" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="190"/>
-      <c r="U18" s="175"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="162"/>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="162"/>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="162"/>
-      <c r="AH18" s="162"/>
-      <c r="AI18" s="174"/>
-      <c r="AJ18" s="184"/>
-      <c r="AK18" s="162"/>
-      <c r="AL18" s="162"/>
-      <c r="AM18" s="162"/>
-      <c r="AN18" s="162"/>
-    </row>
-    <row r="19" spans="1:40" ht="13.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="150"/>
-      <c r="B19" s="269"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="166" t="s">
+      <c r="P17" s="188"/>
+      <c r="Q17" s="188"/>
+      <c r="R17" s="188"/>
+      <c r="S17" s="190"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="188"/>
+      <c r="V17" s="188"/>
+      <c r="W17" s="188"/>
+      <c r="X17" s="188"/>
+      <c r="Y17" s="188"/>
+      <c r="Z17" s="188"/>
+      <c r="AA17" s="188"/>
+      <c r="AB17" s="201"/>
+      <c r="AC17" s="203"/>
+      <c r="AD17" s="188"/>
+      <c r="AE17" s="188"/>
+      <c r="AF17" s="188"/>
+      <c r="AG17" s="188"/>
+      <c r="AH17" s="206"/>
+      <c r="AI17" s="203"/>
+      <c r="AJ17" s="188"/>
+      <c r="AK17" s="188"/>
+      <c r="AL17" s="188"/>
+      <c r="AM17" s="188"/>
+    </row>
+    <row r="18" spans="1:39" s="100" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="216"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="188"/>
+      <c r="Q18" s="188"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="190"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="188"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="188"/>
+      <c r="Z18" s="188"/>
+      <c r="AA18" s="188"/>
+      <c r="AB18" s="202"/>
+      <c r="AC18" s="204"/>
+      <c r="AD18" s="188"/>
+      <c r="AE18" s="188"/>
+      <c r="AF18" s="188"/>
+      <c r="AG18" s="188"/>
+      <c r="AH18" s="191"/>
+      <c r="AI18" s="204"/>
+      <c r="AJ18" s="188"/>
+      <c r="AK18" s="188"/>
+      <c r="AL18" s="188"/>
+      <c r="AM18" s="188"/>
+    </row>
+    <row r="19" spans="1:39" ht="13.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="216"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="222"/>
+      <c r="E19" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="168" t="s">
+      <c r="F19" s="229" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="168" t="s">
+      <c r="G19" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="168" t="s">
+      <c r="H19" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="170" t="s">
+      <c r="I19" s="231" t="s">
         <v>44</v>
       </c>
+      <c r="J19" s="172" t="s">
+        <v>45</v>
+      </c>
       <c r="K19" s="172" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="191" t="str">
+      <c r="L19" s="183" t="str">
+        <f>F19</f>
+        <v>##MATR1##</v>
+      </c>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172" t="str">
         <f>G19</f>
-        <v>##MATR1##</v>
-      </c>
-      <c r="N19" s="172"/>
+        <v>##MATR2##</v>
+      </c>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>##MATR2##</v>
+        <v>##MATR3##</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>##MATR3##</v>
+        <v>##MATR4##</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>##MATR4##</v>
+        <v>##MATR5##</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v>##MATR5##</v>
-      </c>
-      <c r="S19" s="172" t="str">
-        <f>L19</f>
         <v>##MATR6##</v>
       </c>
-      <c r="T19" s="209"/>
-      <c r="U19" s="191" t="str">
+      <c r="S19" s="181"/>
+      <c r="T19" s="183" t="str">
+        <f>F19</f>
+        <v>##MATR1##</v>
+      </c>
+      <c r="U19" s="172"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="172" t="str">
         <f>G19</f>
-        <v>##MATR1##</v>
-      </c>
-      <c r="V19" s="172"/>
-      <c r="W19" s="172"/>
+        <v>##MATR2##</v>
+      </c>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>##MATR2##</v>
+        <v>##MATR3##</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>##MATR3##</v>
+        <v>##MATR4##</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>##MATR4##</v>
+        <v>##MATR5##</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v>##MATR5##</v>
-      </c>
-      <c r="AB19" s="172" t="str">
-        <f>L19</f>
         <v>##MATR6##</v>
       </c>
-      <c r="AC19" s="207" t="str">
-        <f t="shared" ref="AC19:AH19" si="2">G19</f>
+      <c r="AB19" s="179" t="str">
+        <f t="shared" ref="AB19:AG19" si="2">F19</f>
         <v>##MATR1##</v>
+      </c>
+      <c r="AC19" s="172" t="str">
+        <f t="shared" si="2"/>
+        <v>##MATR2##</v>
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>##MATR2##</v>
+        <v>##MATR3##</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>##MATR3##</v>
+        <v>##MATR4##</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>##MATR4##</v>
+        <v>##MATR5##</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>##MATR5##</v>
-      </c>
-      <c r="AH19" s="172" t="str">
-        <f t="shared" si="2"/>
         <v>##MATR6##</v>
       </c>
-      <c r="AI19" s="205" t="str">
-        <f t="shared" ref="AI19:AN19" si="3">G19</f>
+      <c r="AH19" s="177" t="str">
+        <f t="shared" ref="AH19:AM19" si="3">F19</f>
         <v>##MATR1##</v>
+      </c>
+      <c r="AI19" s="172" t="str">
+        <f t="shared" si="3"/>
+        <v>##MATR2##</v>
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>##MATR2##</v>
+        <v>##MATR3##</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>##MATR3##</v>
+        <v>##MATR4##</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>##MATR4##</v>
+        <v>##MATR5##</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>##MATR5##</v>
-      </c>
-      <c r="AN19" s="172" t="str">
-        <f t="shared" si="3"/>
         <v>##MATR6##</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
-      <c r="B20" s="270"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="171"/>
+    <row r="20" spans="1:39" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="217"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="230"/>
+      <c r="I20" s="232"/>
+      <c r="J20" s="173"/>
       <c r="K20" s="173"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="192"/>
+      <c r="L20" s="184"/>
+      <c r="M20" s="173"/>
       <c r="N20" s="173"/>
       <c r="O20" s="173"/>
       <c r="P20" s="173"/>
       <c r="Q20" s="173"/>
       <c r="R20" s="173"/>
-      <c r="S20" s="173"/>
-      <c r="T20" s="210"/>
-      <c r="U20" s="192"/>
+      <c r="S20" s="182"/>
+      <c r="T20" s="184"/>
+      <c r="U20" s="173"/>
       <c r="V20" s="173"/>
       <c r="W20" s="173"/>
       <c r="X20" s="173"/>
       <c r="Y20" s="173"/>
       <c r="Z20" s="173"/>
       <c r="AA20" s="173"/>
-      <c r="AB20" s="173"/>
-      <c r="AC20" s="208"/>
+      <c r="AB20" s="180"/>
+      <c r="AC20" s="173"/>
       <c r="AD20" s="173"/>
       <c r="AE20" s="173"/>
       <c r="AF20" s="173"/>
       <c r="AG20" s="173"/>
-      <c r="AH20" s="173"/>
-      <c r="AI20" s="206"/>
+      <c r="AH20" s="178"/>
+      <c r="AI20" s="173"/>
       <c r="AJ20" s="173"/>
       <c r="AK20" s="173"/>
       <c r="AL20" s="173"/>
       <c r="AM20" s="173"/>
-      <c r="AN20" s="173"/>
-    </row>
-    <row r="21" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="193" t="s">
+    </row>
+    <row r="21" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="157" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="196"/>
-      <c r="N21" s="197"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="174"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="197"/>
-      <c r="T21" s="198"/>
-      <c r="U21" s="196"/>
-      <c r="V21" s="197"/>
-      <c r="W21" s="197"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="176"/>
+      <c r="T21" s="174"/>
+      <c r="U21" s="175"/>
+      <c r="V21" s="175"/>
+      <c r="W21" s="22"/>
       <c r="X21" s="22"/>
       <c r="Y21" s="22"/>
       <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="24"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="22"/>
       <c r="AD21" s="22"/>
       <c r="AE21" s="22"/>
       <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="22"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="90"/>
       <c r="AK21" s="90"/>
-      <c r="AL21" s="90"/>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="26"/>
-    </row>
-    <row r="22" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="194"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="26"/>
+    </row>
+    <row r="22" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="158"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="78"/>
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="199"/>
-      <c r="N22" s="200"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="78"/>
       <c r="O22" s="78"/>
       <c r="P22" s="78"/>
       <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="200"/>
-      <c r="T22" s="201"/>
-      <c r="U22" s="199"/>
-      <c r="V22" s="200"/>
-      <c r="W22" s="200"/>
+      <c r="R22" s="167"/>
+      <c r="S22" s="168"/>
+      <c r="T22" s="166"/>
+      <c r="U22" s="167"/>
+      <c r="V22" s="167"/>
+      <c r="W22" s="78"/>
       <c r="X22" s="78"/>
       <c r="Y22" s="78"/>
       <c r="Z22" s="78"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="61"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="78"/>
       <c r="AD22" s="78"/>
       <c r="AE22" s="78"/>
       <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="78"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="78"/>
+      <c r="AJ22" s="91"/>
       <c r="AK22" s="91"/>
-      <c r="AL22" s="91"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="31"/>
-    </row>
-    <row r="23" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="194"/>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="31"/>
+    </row>
+    <row r="23" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="158"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="203"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="203"/>
-      <c r="T23" s="204"/>
-      <c r="U23" s="202"/>
-      <c r="V23" s="203"/>
-      <c r="W23" s="203"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
       <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="37"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="35"/>
       <c r="AD23" s="35"/>
       <c r="AE23" s="35"/>
       <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="35"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="92"/>
       <c r="AK23" s="92"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="39"/>
-    </row>
-    <row r="24" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="194"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="39"/>
+    </row>
+    <row r="24" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="158"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="78"/>
       <c r="I24" s="78"/>
       <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="199"/>
-      <c r="N24" s="200"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="78"/>
       <c r="O24" s="78"/>
       <c r="P24" s="78"/>
       <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="200"/>
-      <c r="T24" s="201"/>
-      <c r="U24" s="199"/>
-      <c r="V24" s="200"/>
-      <c r="W24" s="200"/>
+      <c r="R24" s="167"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="166"/>
+      <c r="U24" s="167"/>
+      <c r="V24" s="167"/>
+      <c r="W24" s="78"/>
       <c r="X24" s="78"/>
       <c r="Y24" s="78"/>
       <c r="Z24" s="78"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="61"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="78"/>
       <c r="AD24" s="78"/>
       <c r="AE24" s="78"/>
       <c r="AF24" s="78"/>
-      <c r="AG24" s="78"/>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="78"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="78"/>
+      <c r="AJ24" s="91"/>
       <c r="AK24" s="91"/>
-      <c r="AL24" s="91"/>
-      <c r="AM24" s="78"/>
-      <c r="AN24" s="31"/>
-    </row>
-    <row r="25" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="194"/>
+      <c r="AL24" s="78"/>
+      <c r="AM24" s="31"/>
+    </row>
+    <row r="25" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="158"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="202"/>
-      <c r="N25" s="203"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="35"/>
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="203"/>
-      <c r="T25" s="204"/>
-      <c r="U25" s="202"/>
-      <c r="V25" s="203"/>
-      <c r="W25" s="203"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="151"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="150"/>
+      <c r="V25" s="150"/>
+      <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
       <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="37"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="35"/>
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
       <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="35"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="92"/>
       <c r="AK25" s="92"/>
-      <c r="AL25" s="92"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="39"/>
-    </row>
-    <row r="26" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="194"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="39"/>
+    </row>
+    <row r="26" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="158"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="78"/>
       <c r="H26" s="78"/>
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="199"/>
-      <c r="N26" s="200"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="78"/>
       <c r="O26" s="78"/>
       <c r="P26" s="78"/>
       <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="200"/>
-      <c r="T26" s="201"/>
-      <c r="U26" s="199"/>
-      <c r="V26" s="200"/>
-      <c r="W26" s="200"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="166"/>
+      <c r="U26" s="167"/>
+      <c r="V26" s="167"/>
+      <c r="W26" s="78"/>
       <c r="X26" s="78"/>
       <c r="Y26" s="78"/>
       <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="61"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="78"/>
       <c r="AD26" s="78"/>
       <c r="AE26" s="78"/>
       <c r="AF26" s="78"/>
-      <c r="AG26" s="78"/>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="78"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="78"/>
+      <c r="AJ26" s="91"/>
       <c r="AK26" s="91"/>
-      <c r="AL26" s="91"/>
-      <c r="AM26" s="78"/>
-      <c r="AN26" s="31"/>
-    </row>
-    <row r="27" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="194"/>
+      <c r="AL26" s="78"/>
+      <c r="AM26" s="31"/>
+    </row>
+    <row r="27" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="158"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="203"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="35"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="203"/>
-      <c r="T27" s="204"/>
-      <c r="U27" s="202"/>
-      <c r="V27" s="203"/>
-      <c r="W27" s="203"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
       <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="37"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="35"/>
       <c r="AD27" s="35"/>
       <c r="AE27" s="35"/>
       <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="35"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="92"/>
       <c r="AK27" s="92"/>
-      <c r="AL27" s="92"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="39"/>
-    </row>
-    <row r="28" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="194"/>
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="39"/>
+    </row>
+    <row r="28" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="158"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="78"/>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="199"/>
-      <c r="N28" s="200"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="78"/>
       <c r="O28" s="78"/>
       <c r="P28" s="78"/>
       <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="200"/>
-      <c r="T28" s="201"/>
-      <c r="U28" s="199"/>
-      <c r="V28" s="200"/>
-      <c r="W28" s="200"/>
+      <c r="R28" s="167"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="166"/>
+      <c r="U28" s="167"/>
+      <c r="V28" s="167"/>
+      <c r="W28" s="78"/>
       <c r="X28" s="78"/>
       <c r="Y28" s="78"/>
       <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="61"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="78"/>
       <c r="AD28" s="78"/>
       <c r="AE28" s="78"/>
       <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="78"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="91"/>
       <c r="AK28" s="91"/>
-      <c r="AL28" s="91"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="31"/>
-    </row>
-    <row r="29" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="194"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="31"/>
+    </row>
+    <row r="29" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="158"/>
       <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="203"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="35"/>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="203"/>
-      <c r="T29" s="204"/>
-      <c r="U29" s="202"/>
-      <c r="V29" s="203"/>
-      <c r="W29" s="203"/>
+      <c r="R29" s="150"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="152"/>
+      <c r="U29" s="150"/>
+      <c r="V29" s="150"/>
+      <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
       <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="37"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="35"/>
       <c r="AD29" s="35"/>
       <c r="AE29" s="35"/>
       <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="35"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="92"/>
       <c r="AK29" s="92"/>
-      <c r="AL29" s="92"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="39"/>
-    </row>
-    <row r="30" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="194"/>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="39"/>
+    </row>
+    <row r="30" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="158"/>
       <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="78"/>
       <c r="H30" s="78"/>
       <c r="I30" s="78"/>
       <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="199"/>
-      <c r="N30" s="200"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="78"/>
       <c r="O30" s="78"/>
       <c r="P30" s="78"/>
       <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="200"/>
-      <c r="T30" s="201"/>
-      <c r="U30" s="199"/>
-      <c r="V30" s="200"/>
-      <c r="W30" s="200"/>
+      <c r="R30" s="167"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="166"/>
+      <c r="U30" s="167"/>
+      <c r="V30" s="167"/>
+      <c r="W30" s="78"/>
       <c r="X30" s="78"/>
       <c r="Y30" s="78"/>
       <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="61"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="78"/>
       <c r="AD30" s="78"/>
       <c r="AE30" s="78"/>
       <c r="AF30" s="78"/>
-      <c r="AG30" s="78"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="29"/>
-      <c r="AJ30" s="78"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="78"/>
+      <c r="AJ30" s="91"/>
       <c r="AK30" s="91"/>
-      <c r="AL30" s="91"/>
-      <c r="AM30" s="78"/>
-      <c r="AN30" s="31"/>
-    </row>
-    <row r="31" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="194"/>
+      <c r="AL30" s="78"/>
+      <c r="AM30" s="31"/>
+    </row>
+    <row r="31" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="158"/>
       <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="203"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="35"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="203"/>
-      <c r="T31" s="204"/>
-      <c r="U31" s="202"/>
-      <c r="V31" s="203"/>
-      <c r="W31" s="203"/>
+      <c r="R31" s="150"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="152"/>
+      <c r="U31" s="150"/>
+      <c r="V31" s="150"/>
+      <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
       <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="37"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="35"/>
       <c r="AD31" s="35"/>
       <c r="AE31" s="35"/>
       <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="35"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="92"/>
       <c r="AK31" s="92"/>
-      <c r="AL31" s="92"/>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="39"/>
-    </row>
-    <row r="32" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="194"/>
+      <c r="AL31" s="35"/>
+      <c r="AM31" s="39"/>
+    </row>
+    <row r="32" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="158"/>
       <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="78"/>
       <c r="I32" s="78"/>
       <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="199"/>
-      <c r="N32" s="200"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="78"/>
       <c r="O32" s="78"/>
       <c r="P32" s="78"/>
       <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="200"/>
-      <c r="T32" s="201"/>
-      <c r="U32" s="199"/>
-      <c r="V32" s="200"/>
-      <c r="W32" s="200"/>
+      <c r="R32" s="167"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="166"/>
+      <c r="U32" s="167"/>
+      <c r="V32" s="167"/>
+      <c r="W32" s="78"/>
       <c r="X32" s="78"/>
       <c r="Y32" s="78"/>
       <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="61"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="78"/>
       <c r="AD32" s="78"/>
       <c r="AE32" s="78"/>
       <c r="AF32" s="78"/>
-      <c r="AG32" s="78"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="29"/>
-      <c r="AJ32" s="78"/>
+      <c r="AG32" s="60"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="78"/>
+      <c r="AJ32" s="91"/>
       <c r="AK32" s="91"/>
-      <c r="AL32" s="91"/>
-      <c r="AM32" s="78"/>
-      <c r="AN32" s="31"/>
-    </row>
-    <row r="33" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="194"/>
+      <c r="AL32" s="78"/>
+      <c r="AM32" s="31"/>
+    </row>
+    <row r="33" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="158"/>
       <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="203"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="35"/>
       <c r="O33" s="35"/>
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="203"/>
-      <c r="T33" s="204"/>
-      <c r="U33" s="202"/>
-      <c r="V33" s="203"/>
-      <c r="W33" s="203"/>
+      <c r="R33" s="150"/>
+      <c r="S33" s="151"/>
+      <c r="T33" s="152"/>
+      <c r="U33" s="150"/>
+      <c r="V33" s="150"/>
+      <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="37"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="35"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35"/>
       <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="38"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="35"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="92"/>
       <c r="AK33" s="92"/>
-      <c r="AL33" s="92"/>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="39"/>
-    </row>
-    <row r="34" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="194"/>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="39"/>
+    </row>
+    <row r="34" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="158"/>
       <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="78"/>
       <c r="H34" s="78"/>
       <c r="I34" s="78"/>
       <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="199"/>
-      <c r="N34" s="200"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="166"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="78"/>
       <c r="O34" s="78"/>
       <c r="P34" s="78"/>
       <c r="Q34" s="78"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="200"/>
-      <c r="T34" s="201"/>
-      <c r="U34" s="199"/>
-      <c r="V34" s="200"/>
-      <c r="W34" s="200"/>
+      <c r="R34" s="167"/>
+      <c r="S34" s="168"/>
+      <c r="T34" s="166"/>
+      <c r="U34" s="167"/>
+      <c r="V34" s="167"/>
+      <c r="W34" s="78"/>
       <c r="X34" s="78"/>
       <c r="Y34" s="78"/>
       <c r="Z34" s="78"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="61"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="78"/>
       <c r="AD34" s="78"/>
       <c r="AE34" s="78"/>
       <c r="AF34" s="78"/>
-      <c r="AG34" s="78"/>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="29"/>
-      <c r="AJ34" s="78"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="78"/>
+      <c r="AJ34" s="91"/>
       <c r="AK34" s="91"/>
-      <c r="AL34" s="91"/>
-      <c r="AM34" s="78"/>
-      <c r="AN34" s="31"/>
-    </row>
-    <row r="35" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="195"/>
+      <c r="AL34" s="78"/>
+      <c r="AM34" s="31"/>
+    </row>
+    <row r="35" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="159"/>
       <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
       <c r="H35" s="52"/>
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="211"/>
-      <c r="N35" s="212"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="169"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="52"/>
       <c r="O35" s="52"/>
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="212"/>
-      <c r="T35" s="213"/>
-      <c r="U35" s="211"/>
-      <c r="V35" s="212"/>
-      <c r="W35" s="212"/>
+      <c r="R35" s="170"/>
+      <c r="S35" s="171"/>
+      <c r="T35" s="169"/>
+      <c r="U35" s="170"/>
+      <c r="V35" s="170"/>
+      <c r="W35" s="52"/>
       <c r="X35" s="52"/>
       <c r="Y35" s="52"/>
       <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="43"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="52"/>
       <c r="AD35" s="52"/>
       <c r="AE35" s="52"/>
       <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="42"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="52"/>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="93"/>
       <c r="AK35" s="93"/>
-      <c r="AL35" s="93"/>
-      <c r="AM35" s="52"/>
-      <c r="AN35" s="54"/>
-    </row>
-    <row r="36" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="193" t="s">
+      <c r="AL35" s="52"/>
+      <c r="AM35" s="54"/>
+    </row>
+    <row r="36" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="157" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="77"/>
       <c r="H36" s="77"/>
       <c r="I36" s="77"/>
       <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="214"/>
-      <c r="N36" s="215"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="161"/>
+      <c r="N36" s="77"/>
       <c r="O36" s="77"/>
       <c r="P36" s="77"/>
       <c r="Q36" s="77"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="215"/>
-      <c r="T36" s="216"/>
-      <c r="U36" s="214"/>
-      <c r="V36" s="215"/>
-      <c r="W36" s="215"/>
+      <c r="R36" s="161"/>
+      <c r="S36" s="162"/>
+      <c r="T36" s="160"/>
+      <c r="U36" s="161"/>
+      <c r="V36" s="161"/>
+      <c r="W36" s="77"/>
       <c r="X36" s="77"/>
       <c r="Y36" s="77"/>
       <c r="Z36" s="77"/>
-      <c r="AA36" s="77"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="63"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="77"/>
       <c r="AD36" s="77"/>
       <c r="AE36" s="77"/>
       <c r="AF36" s="77"/>
-      <c r="AG36" s="77"/>
-      <c r="AH36" s="62"/>
-      <c r="AI36" s="46"/>
-      <c r="AJ36" s="77"/>
+      <c r="AG36" s="62"/>
+      <c r="AH36" s="46"/>
+      <c r="AI36" s="77"/>
+      <c r="AJ36" s="94"/>
       <c r="AK36" s="94"/>
-      <c r="AL36" s="94"/>
-      <c r="AM36" s="77"/>
-      <c r="AN36" s="48"/>
-    </row>
-    <row r="37" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="194"/>
+      <c r="AL36" s="77"/>
+      <c r="AM36" s="48"/>
+    </row>
+    <row r="37" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="158"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="202"/>
-      <c r="N37" s="203"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="35"/>
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
       <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="203"/>
-      <c r="T37" s="204"/>
-      <c r="U37" s="202"/>
-      <c r="V37" s="203"/>
-      <c r="W37" s="203"/>
+      <c r="R37" s="150"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="152"/>
+      <c r="U37" s="150"/>
+      <c r="V37" s="150"/>
+      <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
       <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="37"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="35"/>
       <c r="AD37" s="35"/>
       <c r="AE37" s="35"/>
       <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="38"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="35"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="34"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="92"/>
       <c r="AK37" s="92"/>
-      <c r="AL37" s="92"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="39"/>
-    </row>
-    <row r="38" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="194"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="39"/>
+    </row>
+    <row r="38" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="158"/>
       <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="78"/>
       <c r="H38" s="78"/>
       <c r="I38" s="78"/>
       <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="199"/>
-      <c r="N38" s="200"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="166"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="78"/>
       <c r="O38" s="78"/>
       <c r="P38" s="78"/>
       <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="200"/>
-      <c r="T38" s="201"/>
-      <c r="U38" s="199"/>
-      <c r="V38" s="200"/>
-      <c r="W38" s="200"/>
+      <c r="R38" s="167"/>
+      <c r="S38" s="168"/>
+      <c r="T38" s="166"/>
+      <c r="U38" s="167"/>
+      <c r="V38" s="167"/>
+      <c r="W38" s="78"/>
       <c r="X38" s="78"/>
       <c r="Y38" s="78"/>
       <c r="Z38" s="78"/>
-      <c r="AA38" s="78"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="61"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="78"/>
       <c r="AD38" s="78"/>
       <c r="AE38" s="78"/>
       <c r="AF38" s="78"/>
-      <c r="AG38" s="78"/>
-      <c r="AH38" s="60"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="78"/>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="78"/>
+      <c r="AJ38" s="91"/>
       <c r="AK38" s="91"/>
-      <c r="AL38" s="91"/>
-      <c r="AM38" s="78"/>
-      <c r="AN38" s="31"/>
-    </row>
-    <row r="39" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="194"/>
+      <c r="AL38" s="78"/>
+      <c r="AM38" s="31"/>
+    </row>
+    <row r="39" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="158"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="202"/>
-      <c r="N39" s="203"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="203"/>
-      <c r="T39" s="204"/>
-      <c r="U39" s="202"/>
-      <c r="V39" s="203"/>
-      <c r="W39" s="203"/>
+      <c r="R39" s="150"/>
+      <c r="S39" s="151"/>
+      <c r="T39" s="152"/>
+      <c r="U39" s="150"/>
+      <c r="V39" s="150"/>
+      <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
       <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="37"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="35"/>
       <c r="AD39" s="35"/>
       <c r="AE39" s="35"/>
       <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="38"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="35"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="34"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="92"/>
       <c r="AK39" s="92"/>
-      <c r="AL39" s="92"/>
-      <c r="AM39" s="35"/>
-      <c r="AN39" s="39"/>
-    </row>
-    <row r="40" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="194"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="39"/>
+    </row>
+    <row r="40" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="158"/>
       <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="78"/>
       <c r="H40" s="78"/>
       <c r="I40" s="78"/>
       <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="199"/>
-      <c r="N40" s="200"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="78"/>
       <c r="O40" s="78"/>
       <c r="P40" s="78"/>
       <c r="Q40" s="78"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="200"/>
-      <c r="T40" s="201"/>
-      <c r="U40" s="199"/>
-      <c r="V40" s="200"/>
-      <c r="W40" s="200"/>
+      <c r="R40" s="167"/>
+      <c r="S40" s="168"/>
+      <c r="T40" s="166"/>
+      <c r="U40" s="167"/>
+      <c r="V40" s="167"/>
+      <c r="W40" s="78"/>
       <c r="X40" s="78"/>
       <c r="Y40" s="78"/>
       <c r="Z40" s="78"/>
-      <c r="AA40" s="78"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="61"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="78"/>
       <c r="AD40" s="78"/>
       <c r="AE40" s="78"/>
       <c r="AF40" s="78"/>
-      <c r="AG40" s="78"/>
-      <c r="AH40" s="60"/>
-      <c r="AI40" s="29"/>
-      <c r="AJ40" s="78"/>
+      <c r="AG40" s="60"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="78"/>
+      <c r="AJ40" s="91"/>
       <c r="AK40" s="91"/>
-      <c r="AL40" s="91"/>
-      <c r="AM40" s="78"/>
-      <c r="AN40" s="31"/>
-    </row>
-    <row r="41" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="195"/>
+      <c r="AL40" s="78"/>
+      <c r="AM40" s="31"/>
+    </row>
+    <row r="41" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="159"/>
       <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="211"/>
-      <c r="N41" s="212"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="169"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="52"/>
       <c r="O41" s="52"/>
       <c r="P41" s="52"/>
       <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="212"/>
-      <c r="T41" s="213"/>
-      <c r="U41" s="211"/>
-      <c r="V41" s="212"/>
-      <c r="W41" s="212"/>
+      <c r="R41" s="170"/>
+      <c r="S41" s="171"/>
+      <c r="T41" s="169"/>
+      <c r="U41" s="170"/>
+      <c r="V41" s="170"/>
+      <c r="W41" s="52"/>
       <c r="X41" s="52"/>
       <c r="Y41" s="52"/>
       <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="43"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="52"/>
       <c r="AD41" s="52"/>
       <c r="AE41" s="52"/>
       <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
-      <c r="AH41" s="42"/>
-      <c r="AI41" s="51"/>
-      <c r="AJ41" s="52"/>
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="93"/>
       <c r="AK41" s="93"/>
-      <c r="AL41" s="93"/>
-      <c r="AM41" s="52"/>
-      <c r="AN41" s="54"/>
-    </row>
-    <row r="42" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="193" t="s">
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="54"/>
+    </row>
+    <row r="42" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="157" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="77"/>
       <c r="H42" s="77"/>
       <c r="I42" s="77"/>
       <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="214"/>
-      <c r="N42" s="215"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="160"/>
+      <c r="M42" s="161"/>
+      <c r="N42" s="77"/>
       <c r="O42" s="77"/>
       <c r="P42" s="77"/>
       <c r="Q42" s="77"/>
-      <c r="R42" s="77"/>
-      <c r="S42" s="215"/>
-      <c r="T42" s="216"/>
-      <c r="U42" s="214"/>
-      <c r="V42" s="215"/>
-      <c r="W42" s="215"/>
+      <c r="R42" s="161"/>
+      <c r="S42" s="162"/>
+      <c r="T42" s="160"/>
+      <c r="U42" s="161"/>
+      <c r="V42" s="161"/>
+      <c r="W42" s="77"/>
       <c r="X42" s="77"/>
       <c r="Y42" s="77"/>
       <c r="Z42" s="77"/>
-      <c r="AA42" s="77"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="63"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="63"/>
+      <c r="AC42" s="77"/>
       <c r="AD42" s="77"/>
       <c r="AE42" s="77"/>
       <c r="AF42" s="77"/>
-      <c r="AG42" s="77"/>
-      <c r="AH42" s="62"/>
-      <c r="AI42" s="46"/>
-      <c r="AJ42" s="77"/>
+      <c r="AG42" s="62"/>
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="77"/>
+      <c r="AJ42" s="94"/>
       <c r="AK42" s="94"/>
-      <c r="AL42" s="94"/>
-      <c r="AM42" s="77"/>
-      <c r="AN42" s="48"/>
-    </row>
-    <row r="43" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="194"/>
+      <c r="AL42" s="77"/>
+      <c r="AM42" s="48"/>
+    </row>
+    <row r="43" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="158"/>
       <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="202"/>
-      <c r="N43" s="203"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="150"/>
+      <c r="N43" s="35"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="203"/>
-      <c r="T43" s="204"/>
-      <c r="U43" s="202"/>
-      <c r="V43" s="203"/>
-      <c r="W43" s="203"/>
+      <c r="R43" s="150"/>
+      <c r="S43" s="151"/>
+      <c r="T43" s="152"/>
+      <c r="U43" s="150"/>
+      <c r="V43" s="150"/>
+      <c r="W43" s="35"/>
       <c r="X43" s="35"/>
       <c r="Y43" s="35"/>
       <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="37"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="35"/>
       <c r="AD43" s="35"/>
       <c r="AE43" s="35"/>
       <c r="AF43" s="35"/>
-      <c r="AG43" s="35"/>
-      <c r="AH43" s="38"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="35"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="34"/>
+      <c r="AI43" s="35"/>
+      <c r="AJ43" s="92"/>
       <c r="AK43" s="92"/>
-      <c r="AL43" s="92"/>
-      <c r="AM43" s="35"/>
-      <c r="AN43" s="39"/>
-    </row>
-    <row r="44" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="194"/>
+      <c r="AL43" s="35"/>
+      <c r="AM43" s="39"/>
+    </row>
+    <row r="44" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="158"/>
       <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="78"/>
       <c r="H44" s="78"/>
       <c r="I44" s="78"/>
       <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="199"/>
-      <c r="N44" s="200"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="167"/>
+      <c r="N44" s="78"/>
       <c r="O44" s="78"/>
       <c r="P44" s="78"/>
       <c r="Q44" s="78"/>
-      <c r="R44" s="78"/>
-      <c r="S44" s="200"/>
-      <c r="T44" s="201"/>
-      <c r="U44" s="199"/>
-      <c r="V44" s="200"/>
-      <c r="W44" s="200"/>
+      <c r="R44" s="167"/>
+      <c r="S44" s="168"/>
+      <c r="T44" s="166"/>
+      <c r="U44" s="167"/>
+      <c r="V44" s="167"/>
+      <c r="W44" s="78"/>
       <c r="X44" s="78"/>
       <c r="Y44" s="78"/>
       <c r="Z44" s="78"/>
-      <c r="AA44" s="78"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="61"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="61"/>
+      <c r="AC44" s="78"/>
       <c r="AD44" s="78"/>
       <c r="AE44" s="78"/>
       <c r="AF44" s="78"/>
-      <c r="AG44" s="78"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="29"/>
-      <c r="AJ44" s="78"/>
+      <c r="AG44" s="60"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="78"/>
+      <c r="AJ44" s="91"/>
       <c r="AK44" s="91"/>
-      <c r="AL44" s="91"/>
-      <c r="AM44" s="78"/>
-      <c r="AN44" s="31"/>
-    </row>
-    <row r="45" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="195"/>
+      <c r="AL44" s="78"/>
+      <c r="AM44" s="31"/>
+    </row>
+    <row r="45" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="159"/>
       <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="50"/>
       <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
       <c r="H45" s="52"/>
       <c r="I45" s="52"/>
       <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="211"/>
-      <c r="N45" s="212"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="169"/>
+      <c r="M45" s="170"/>
+      <c r="N45" s="52"/>
       <c r="O45" s="52"/>
       <c r="P45" s="52"/>
       <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="212"/>
-      <c r="T45" s="213"/>
-      <c r="U45" s="211"/>
-      <c r="V45" s="212"/>
-      <c r="W45" s="212"/>
+      <c r="R45" s="170"/>
+      <c r="S45" s="171"/>
+      <c r="T45" s="169"/>
+      <c r="U45" s="170"/>
+      <c r="V45" s="170"/>
+      <c r="W45" s="52"/>
       <c r="X45" s="52"/>
       <c r="Y45" s="52"/>
       <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="43"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="52"/>
       <c r="AD45" s="52"/>
       <c r="AE45" s="52"/>
       <c r="AF45" s="52"/>
-      <c r="AG45" s="52"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="51"/>
-      <c r="AJ45" s="52"/>
-      <c r="AK45" s="93"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="52"/>
-      <c r="AN45" s="54"/>
-    </row>
-    <row r="46" spans="1:40" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG45" s="42"/>
+      <c r="AH45" s="51"/>
+      <c r="AI45" s="52"/>
+      <c r="AJ45" s="93"/>
+      <c r="AK45" s="95"/>
+      <c r="AL45" s="52"/>
+      <c r="AM45" s="54"/>
+    </row>
+    <row r="46" spans="1:39" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="99"/>
       <c r="B46" s="99"/>
       <c r="C46" s="99"/>
@@ -5107,18 +5068,18 @@
       <c r="I46" s="99"/>
       <c r="J46" s="99"/>
       <c r="K46" s="99"/>
-      <c r="L46" s="99"/>
-      <c r="M46" s="227"/>
-      <c r="N46" s="227"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
+      <c r="N46" s="99"/>
       <c r="O46" s="99"/>
       <c r="P46" s="99"/>
       <c r="Q46" s="99"/>
       <c r="R46" s="99"/>
       <c r="S46" s="99"/>
-      <c r="T46" s="99"/>
-      <c r="U46" s="227"/>
-      <c r="V46" s="227"/>
-      <c r="W46" s="227"/>
+      <c r="T46" s="156"/>
+      <c r="U46" s="156"/>
+      <c r="V46" s="156"/>
+      <c r="W46" s="99"/>
       <c r="X46" s="99"/>
       <c r="Y46" s="99"/>
       <c r="Z46" s="99"/>
@@ -5135,320 +5096,313 @@
       <c r="AK46" s="99"/>
       <c r="AL46" s="99"/>
       <c r="AM46" s="99"/>
-      <c r="AN46" s="99"/>
-    </row>
-    <row r="47" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="217" t="s">
+    </row>
+    <row r="47" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="123"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="218"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="46"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="77"/>
       <c r="H47" s="77"/>
       <c r="I47" s="77"/>
       <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="214"/>
-      <c r="N47" s="215"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="160"/>
+      <c r="M47" s="161"/>
+      <c r="N47" s="77"/>
       <c r="O47" s="77"/>
       <c r="P47" s="77"/>
       <c r="Q47" s="77"/>
-      <c r="R47" s="77"/>
-      <c r="S47" s="215"/>
-      <c r="T47" s="216"/>
-      <c r="U47" s="214"/>
-      <c r="V47" s="215"/>
-      <c r="W47" s="215"/>
+      <c r="R47" s="161"/>
+      <c r="S47" s="162"/>
+      <c r="T47" s="160"/>
+      <c r="U47" s="161"/>
+      <c r="V47" s="161"/>
+      <c r="W47" s="77"/>
       <c r="X47" s="77"/>
       <c r="Y47" s="77"/>
       <c r="Z47" s="77"/>
-      <c r="AA47" s="77"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="63"/>
-      <c r="AD47" s="77"/>
-      <c r="AE47" s="63"/>
-      <c r="AF47" s="77"/>
-      <c r="AG47" s="63"/>
-      <c r="AH47" s="47"/>
-      <c r="AI47" s="63"/>
-      <c r="AJ47" s="77"/>
-      <c r="AK47" s="63"/>
-      <c r="AL47" s="77"/>
-      <c r="AM47" s="63"/>
-      <c r="AN47" s="48"/>
-    </row>
-    <row r="48" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="219"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="55"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="63"/>
+      <c r="AC47" s="77"/>
+      <c r="AD47" s="63"/>
+      <c r="AE47" s="77"/>
+      <c r="AF47" s="63"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="63"/>
+      <c r="AI47" s="77"/>
+      <c r="AJ47" s="63"/>
+      <c r="AK47" s="77"/>
+      <c r="AL47" s="63"/>
+      <c r="AM47" s="48"/>
+    </row>
+    <row r="48" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="113"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
       <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="202"/>
-      <c r="N48" s="203"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="152"/>
+      <c r="M48" s="150"/>
+      <c r="N48" s="56"/>
       <c r="O48" s="56"/>
       <c r="P48" s="56"/>
       <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="203"/>
-      <c r="T48" s="204"/>
-      <c r="U48" s="202"/>
-      <c r="V48" s="203"/>
-      <c r="W48" s="203"/>
+      <c r="R48" s="150"/>
+      <c r="S48" s="151"/>
+      <c r="T48" s="152"/>
+      <c r="U48" s="150"/>
+      <c r="V48" s="150"/>
+      <c r="W48" s="56"/>
       <c r="X48" s="56"/>
       <c r="Y48" s="56"/>
       <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="57"/>
-      <c r="AC48" s="58"/>
-      <c r="AD48" s="56"/>
-      <c r="AE48" s="58"/>
-      <c r="AF48" s="56"/>
-      <c r="AG48" s="58"/>
-      <c r="AH48" s="57"/>
-      <c r="AI48" s="58"/>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="58"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="58"/>
-      <c r="AN48" s="59"/>
-    </row>
-    <row r="49" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="219"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="29"/>
+      <c r="AA48" s="57"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="58"/>
+      <c r="AG48" s="57"/>
+      <c r="AH48" s="58"/>
+      <c r="AI48" s="56"/>
+      <c r="AJ48" s="58"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="58"/>
+      <c r="AM48" s="59"/>
+    </row>
+    <row r="49" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="113"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="78"/>
       <c r="H49" s="78"/>
       <c r="I49" s="78"/>
       <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="199"/>
-      <c r="N49" s="200"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="166"/>
+      <c r="M49" s="167"/>
+      <c r="N49" s="78"/>
       <c r="O49" s="78"/>
       <c r="P49" s="78"/>
       <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="200"/>
-      <c r="T49" s="201"/>
-      <c r="U49" s="199"/>
-      <c r="V49" s="200"/>
-      <c r="W49" s="200"/>
+      <c r="R49" s="167"/>
+      <c r="S49" s="168"/>
+      <c r="T49" s="166"/>
+      <c r="U49" s="167"/>
+      <c r="V49" s="167"/>
+      <c r="W49" s="78"/>
       <c r="X49" s="78"/>
       <c r="Y49" s="78"/>
       <c r="Z49" s="78"/>
-      <c r="AA49" s="78"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="61"/>
-      <c r="AD49" s="78"/>
-      <c r="AE49" s="61"/>
-      <c r="AF49" s="78"/>
-      <c r="AG49" s="61"/>
-      <c r="AH49" s="30"/>
-      <c r="AI49" s="61"/>
-      <c r="AJ49" s="78"/>
-      <c r="AK49" s="61"/>
-      <c r="AL49" s="78"/>
-      <c r="AM49" s="61"/>
-      <c r="AN49" s="31"/>
-    </row>
-    <row r="50" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="219"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="220"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="55"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="61"/>
+      <c r="AC49" s="78"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="78"/>
+      <c r="AF49" s="61"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="61"/>
+      <c r="AI49" s="78"/>
+      <c r="AJ49" s="61"/>
+      <c r="AK49" s="78"/>
+      <c r="AL49" s="61"/>
+      <c r="AM49" s="31"/>
+    </row>
+    <row r="50" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="113"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
       <c r="H50" s="56"/>
       <c r="I50" s="56"/>
       <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="202"/>
-      <c r="N50" s="203"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="152"/>
+      <c r="M50" s="150"/>
+      <c r="N50" s="56"/>
       <c r="O50" s="56"/>
       <c r="P50" s="56"/>
       <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="203"/>
-      <c r="T50" s="204"/>
-      <c r="U50" s="202"/>
-      <c r="V50" s="203"/>
-      <c r="W50" s="203"/>
+      <c r="R50" s="150"/>
+      <c r="S50" s="151"/>
+      <c r="T50" s="152"/>
+      <c r="U50" s="150"/>
+      <c r="V50" s="150"/>
+      <c r="W50" s="56"/>
       <c r="X50" s="56"/>
       <c r="Y50" s="56"/>
       <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="57"/>
-      <c r="AC50" s="58"/>
-      <c r="AD50" s="56"/>
-      <c r="AE50" s="58"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="57"/>
-      <c r="AI50" s="58"/>
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="56"/>
-      <c r="AM50" s="58"/>
-      <c r="AN50" s="59"/>
-    </row>
-    <row r="51" spans="1:60" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="221"/>
-      <c r="B51" s="222"/>
-      <c r="C51" s="222"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="223"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="96"/>
+      <c r="AA50" s="57"/>
+      <c r="AB50" s="58"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="58"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="57"/>
+      <c r="AH50" s="58"/>
+      <c r="AI50" s="56"/>
+      <c r="AJ50" s="58"/>
+      <c r="AK50" s="56"/>
+      <c r="AL50" s="58"/>
+      <c r="AM50" s="59"/>
+    </row>
+    <row r="51" spans="1:59" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="129"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="76"/>
       <c r="H51" s="76"/>
       <c r="I51" s="76"/>
       <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="97"/>
-      <c r="M51" s="224"/>
-      <c r="N51" s="225"/>
+      <c r="K51" s="97"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="154"/>
+      <c r="N51" s="76"/>
       <c r="O51" s="76"/>
       <c r="P51" s="76"/>
       <c r="Q51" s="76"/>
-      <c r="R51" s="76"/>
-      <c r="S51" s="225"/>
-      <c r="T51" s="226"/>
-      <c r="U51" s="224"/>
-      <c r="V51" s="225"/>
-      <c r="W51" s="225"/>
+      <c r="R51" s="154"/>
+      <c r="S51" s="155"/>
+      <c r="T51" s="153"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="154"/>
+      <c r="W51" s="76"/>
       <c r="X51" s="76"/>
       <c r="Y51" s="76"/>
       <c r="Z51" s="76"/>
-      <c r="AA51" s="76"/>
-      <c r="AB51" s="97"/>
-      <c r="AC51" s="64"/>
-      <c r="AD51" s="76"/>
-      <c r="AE51" s="64"/>
-      <c r="AF51" s="76"/>
-      <c r="AG51" s="64"/>
-      <c r="AH51" s="97"/>
-      <c r="AI51" s="64"/>
-      <c r="AJ51" s="76"/>
-      <c r="AK51" s="64"/>
-      <c r="AL51" s="76"/>
-      <c r="AM51" s="64"/>
-      <c r="AN51" s="98"/>
-    </row>
-    <row r="52" spans="1:60" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="250" t="s">
+      <c r="AA51" s="97"/>
+      <c r="AB51" s="64"/>
+      <c r="AC51" s="76"/>
+      <c r="AD51" s="64"/>
+      <c r="AE51" s="76"/>
+      <c r="AF51" s="64"/>
+      <c r="AG51" s="97"/>
+      <c r="AH51" s="64"/>
+      <c r="AI51" s="76"/>
+      <c r="AJ51" s="64"/>
+      <c r="AK51" s="76"/>
+      <c r="AL51" s="64"/>
+      <c r="AM51" s="98"/>
+    </row>
+    <row r="52" spans="1:59" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="271">
+      <c r="B53" s="101">
         <v>13</v>
       </c>
-      <c r="C53" s="272"/>
-      <c r="D53" s="253" t="s">
+      <c r="C53" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="254"/>
-      <c r="F53" s="254"/>
-      <c r="G53" s="254"/>
-      <c r="H53" s="254"/>
-      <c r="I53" s="254"/>
-      <c r="J53" s="254"/>
-      <c r="K53" s="254"/>
-      <c r="L53" s="254"/>
-      <c r="M53" s="254"/>
-      <c r="N53" s="254"/>
-      <c r="O53" s="254"/>
-      <c r="P53" s="254"/>
-      <c r="Q53" s="254"/>
-      <c r="R53" s="254"/>
-      <c r="S53" s="254"/>
-      <c r="T53" s="254"/>
-      <c r="U53" s="254"/>
-      <c r="V53" s="254"/>
-      <c r="W53" s="254"/>
-      <c r="X53" s="254"/>
-      <c r="Y53" s="254"/>
-      <c r="Z53" s="254"/>
-      <c r="AA53" s="254"/>
-      <c r="AB53" s="254"/>
-      <c r="AC53" s="254"/>
-      <c r="AD53" s="255"/>
-      <c r="AE53" s="250" t="s">
+      <c r="D53" s="141"/>
+      <c r="E53" s="141"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="141"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="141"/>
+      <c r="J53" s="141"/>
+      <c r="K53" s="141"/>
+      <c r="L53" s="141"/>
+      <c r="M53" s="141"/>
+      <c r="N53" s="141"/>
+      <c r="O53" s="141"/>
+      <c r="P53" s="141"/>
+      <c r="Q53" s="141"/>
+      <c r="R53" s="141"/>
+      <c r="S53" s="141"/>
+      <c r="T53" s="141"/>
+      <c r="U53" s="141"/>
+      <c r="V53" s="141"/>
+      <c r="W53" s="141"/>
+      <c r="X53" s="141"/>
+      <c r="Y53" s="141"/>
+      <c r="Z53" s="141"/>
+      <c r="AA53" s="141"/>
+      <c r="AB53" s="141"/>
+      <c r="AC53" s="142"/>
+      <c r="AD53" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="AF53" s="256">
+      <c r="AE53" s="143">
         <v>34</v>
       </c>
-      <c r="AG53" s="217" t="s">
+      <c r="AF53" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AH53" s="123"/>
-      <c r="AI53" s="123"/>
-      <c r="AJ53" s="123"/>
-      <c r="AK53" s="123"/>
-      <c r="AL53" s="123"/>
-      <c r="AM53" s="123"/>
-      <c r="AN53" s="124"/>
-    </row>
-    <row r="54" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="251"/>
-      <c r="B54" s="273">
+      <c r="AG53" s="145"/>
+      <c r="AH53" s="145"/>
+      <c r="AI53" s="145"/>
+      <c r="AJ53" s="145"/>
+      <c r="AK53" s="145"/>
+      <c r="AL53" s="145"/>
+      <c r="AM53" s="146"/>
+    </row>
+    <row r="54" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="138"/>
+      <c r="B54" s="102">
         <v>16</v>
       </c>
-      <c r="C54" s="274"/>
-      <c r="D54" s="228" t="s">
+      <c r="C54" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="229"/>
-      <c r="F54" s="229"/>
-      <c r="G54" s="229"/>
-      <c r="H54" s="229"/>
-      <c r="I54" s="229"/>
-      <c r="J54" s="229"/>
-      <c r="K54" s="229"/>
-      <c r="L54" s="229"/>
-      <c r="M54" s="229"/>
-      <c r="N54" s="229"/>
-      <c r="O54" s="229"/>
-      <c r="P54" s="229"/>
-      <c r="Q54" s="229"/>
-      <c r="R54" s="229"/>
-      <c r="S54" s="229"/>
-      <c r="T54" s="229"/>
-      <c r="U54" s="229"/>
-      <c r="V54" s="229"/>
-      <c r="W54" s="229"/>
-      <c r="X54" s="229"/>
-      <c r="Y54" s="229"/>
-      <c r="Z54" s="229"/>
-      <c r="AA54" s="229"/>
-      <c r="AB54" s="229"/>
-      <c r="AC54" s="229"/>
-      <c r="AD54" s="230"/>
-      <c r="AE54" s="251"/>
-      <c r="AF54" s="231"/>
-      <c r="AG54" s="232"/>
-      <c r="AH54" s="233"/>
-      <c r="AI54" s="233"/>
-      <c r="AJ54" s="233"/>
-      <c r="AK54" s="233"/>
-      <c r="AL54" s="233"/>
-      <c r="AM54" s="233"/>
-      <c r="AN54" s="234"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
+      <c r="J54" s="148"/>
+      <c r="K54" s="148"/>
+      <c r="L54" s="148"/>
+      <c r="M54" s="148"/>
+      <c r="N54" s="148"/>
+      <c r="O54" s="148"/>
+      <c r="P54" s="148"/>
+      <c r="Q54" s="148"/>
+      <c r="R54" s="148"/>
+      <c r="S54" s="148"/>
+      <c r="T54" s="148"/>
+      <c r="U54" s="148"/>
+      <c r="V54" s="148"/>
+      <c r="W54" s="148"/>
+      <c r="X54" s="148"/>
+      <c r="Y54" s="148"/>
+      <c r="Z54" s="148"/>
+      <c r="AA54" s="148"/>
+      <c r="AB54" s="148"/>
+      <c r="AC54" s="149"/>
+      <c r="AD54" s="138"/>
+      <c r="AE54" s="124"/>
+      <c r="AF54" s="116"/>
+      <c r="AG54" s="117"/>
+      <c r="AH54" s="117"/>
+      <c r="AI54" s="117"/>
+      <c r="AJ54" s="117"/>
+      <c r="AK54" s="117"/>
+      <c r="AL54" s="117"/>
+      <c r="AM54" s="118"/>
+      <c r="AN54" s="89"/>
       <c r="AO54" s="89"/>
       <c r="AP54" s="89"/>
       <c r="AQ54" s="89"/>
@@ -5467,58 +5421,57 @@
       <c r="BD54" s="89"/>
       <c r="BE54" s="89"/>
       <c r="BF54" s="89"/>
-      <c r="BG54" s="89"/>
-      <c r="BH54" s="18"/>
-    </row>
-    <row r="55" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="251"/>
-      <c r="B55" s="273">
+      <c r="BG54" s="18"/>
+    </row>
+    <row r="55" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="138"/>
+      <c r="B55" s="102">
         <v>19</v>
       </c>
-      <c r="C55" s="274"/>
-      <c r="D55" s="228" t="s">
+      <c r="C55" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="229"/>
-      <c r="F55" s="229"/>
-      <c r="G55" s="229"/>
-      <c r="H55" s="229"/>
-      <c r="I55" s="229"/>
-      <c r="J55" s="229"/>
-      <c r="K55" s="229"/>
-      <c r="L55" s="229"/>
-      <c r="M55" s="229"/>
-      <c r="N55" s="229"/>
-      <c r="O55" s="229"/>
-      <c r="P55" s="229"/>
-      <c r="Q55" s="229"/>
-      <c r="R55" s="229"/>
-      <c r="S55" s="229"/>
-      <c r="T55" s="229"/>
-      <c r="U55" s="229"/>
-      <c r="V55" s="229"/>
-      <c r="W55" s="229"/>
-      <c r="X55" s="229"/>
-      <c r="Y55" s="229"/>
-      <c r="Z55" s="229"/>
-      <c r="AA55" s="229"/>
-      <c r="AB55" s="229"/>
-      <c r="AC55" s="229"/>
-      <c r="AD55" s="230"/>
-      <c r="AE55" s="251"/>
-      <c r="AF55" s="231">
+      <c r="D55" s="148"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="148"/>
+      <c r="K55" s="148"/>
+      <c r="L55" s="148"/>
+      <c r="M55" s="148"/>
+      <c r="N55" s="148"/>
+      <c r="O55" s="148"/>
+      <c r="P55" s="148"/>
+      <c r="Q55" s="148"/>
+      <c r="R55" s="148"/>
+      <c r="S55" s="148"/>
+      <c r="T55" s="148"/>
+      <c r="U55" s="148"/>
+      <c r="V55" s="148"/>
+      <c r="W55" s="148"/>
+      <c r="X55" s="148"/>
+      <c r="Y55" s="148"/>
+      <c r="Z55" s="148"/>
+      <c r="AA55" s="148"/>
+      <c r="AB55" s="148"/>
+      <c r="AC55" s="149"/>
+      <c r="AD55" s="138"/>
+      <c r="AE55" s="124">
         <v>35</v>
       </c>
-      <c r="AG55" s="241" t="s">
+      <c r="AF55" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="AH55" s="242"/>
-      <c r="AI55" s="242"/>
-      <c r="AJ55" s="242"/>
-      <c r="AK55" s="242"/>
-      <c r="AL55" s="242"/>
-      <c r="AM55" s="242"/>
-      <c r="AN55" s="243"/>
+      <c r="AG55" s="127"/>
+      <c r="AH55" s="127"/>
+      <c r="AI55" s="127"/>
+      <c r="AJ55" s="127"/>
+      <c r="AK55" s="127"/>
+      <c r="AL55" s="127"/>
+      <c r="AM55" s="128"/>
+      <c r="AN55" s="89"/>
       <c r="AO55" s="89"/>
       <c r="AP55" s="89"/>
       <c r="AQ55" s="89"/>
@@ -5537,54 +5490,53 @@
       <c r="BD55" s="89"/>
       <c r="BE55" s="89"/>
       <c r="BF55" s="89"/>
-      <c r="BG55" s="89"/>
-      <c r="BH55" s="18"/>
-    </row>
-    <row r="56" spans="1:60" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="251"/>
-      <c r="B56" s="273">
+      <c r="BG55" s="18"/>
+    </row>
+    <row r="56" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="138"/>
+      <c r="B56" s="102">
         <v>23</v>
       </c>
-      <c r="C56" s="274"/>
-      <c r="D56" s="228" t="s">
+      <c r="C56" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="229"/>
-      <c r="F56" s="229"/>
-      <c r="G56" s="229"/>
-      <c r="H56" s="229"/>
-      <c r="I56" s="229"/>
-      <c r="J56" s="229"/>
-      <c r="K56" s="229"/>
-      <c r="L56" s="229"/>
-      <c r="M56" s="229"/>
-      <c r="N56" s="229"/>
-      <c r="O56" s="229"/>
-      <c r="P56" s="229"/>
-      <c r="Q56" s="229"/>
-      <c r="R56" s="229"/>
-      <c r="S56" s="229"/>
-      <c r="T56" s="229"/>
-      <c r="U56" s="229"/>
-      <c r="V56" s="229"/>
-      <c r="W56" s="229"/>
-      <c r="X56" s="229"/>
-      <c r="Y56" s="229"/>
-      <c r="Z56" s="229"/>
-      <c r="AA56" s="229"/>
-      <c r="AB56" s="229"/>
-      <c r="AC56" s="229"/>
-      <c r="AD56" s="230"/>
-      <c r="AE56" s="251"/>
-      <c r="AF56" s="231"/>
-      <c r="AG56" s="232"/>
-      <c r="AH56" s="233"/>
-      <c r="AI56" s="233"/>
-      <c r="AJ56" s="233"/>
-      <c r="AK56" s="233"/>
-      <c r="AL56" s="233"/>
-      <c r="AM56" s="233"/>
-      <c r="AN56" s="234"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="148"/>
+      <c r="K56" s="148"/>
+      <c r="L56" s="148"/>
+      <c r="M56" s="148"/>
+      <c r="N56" s="148"/>
+      <c r="O56" s="148"/>
+      <c r="P56" s="148"/>
+      <c r="Q56" s="148"/>
+      <c r="R56" s="148"/>
+      <c r="S56" s="148"/>
+      <c r="T56" s="148"/>
+      <c r="U56" s="148"/>
+      <c r="V56" s="148"/>
+      <c r="W56" s="148"/>
+      <c r="X56" s="148"/>
+      <c r="Y56" s="148"/>
+      <c r="Z56" s="148"/>
+      <c r="AA56" s="148"/>
+      <c r="AB56" s="148"/>
+      <c r="AC56" s="149"/>
+      <c r="AD56" s="138"/>
+      <c r="AE56" s="124"/>
+      <c r="AF56" s="116"/>
+      <c r="AG56" s="117"/>
+      <c r="AH56" s="117"/>
+      <c r="AI56" s="117"/>
+      <c r="AJ56" s="117"/>
+      <c r="AK56" s="117"/>
+      <c r="AL56" s="117"/>
+      <c r="AM56" s="118"/>
+      <c r="AN56" s="89"/>
       <c r="AO56" s="89"/>
       <c r="AP56" s="89"/>
       <c r="AQ56" s="89"/>
@@ -5603,58 +5555,57 @@
       <c r="BD56" s="89"/>
       <c r="BE56" s="89"/>
       <c r="BF56" s="89"/>
-      <c r="BG56" s="89"/>
-      <c r="BH56" s="18"/>
-    </row>
-    <row r="57" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="251"/>
-      <c r="B57" s="273">
+      <c r="BG56" s="18"/>
+    </row>
+    <row r="57" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="138"/>
+      <c r="B57" s="102">
         <v>24</v>
       </c>
-      <c r="C57" s="274"/>
-      <c r="D57" s="228" t="s">
+      <c r="C57" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="229"/>
-      <c r="F57" s="229"/>
-      <c r="G57" s="229"/>
-      <c r="H57" s="229"/>
-      <c r="I57" s="229"/>
-      <c r="J57" s="229"/>
-      <c r="K57" s="229"/>
-      <c r="L57" s="229"/>
-      <c r="M57" s="229"/>
-      <c r="N57" s="229"/>
-      <c r="O57" s="229"/>
-      <c r="P57" s="229"/>
-      <c r="Q57" s="229"/>
-      <c r="R57" s="229"/>
-      <c r="S57" s="229"/>
-      <c r="T57" s="229"/>
-      <c r="U57" s="229"/>
-      <c r="V57" s="229"/>
-      <c r="W57" s="229"/>
-      <c r="X57" s="229"/>
-      <c r="Y57" s="229"/>
-      <c r="Z57" s="229"/>
-      <c r="AA57" s="229"/>
-      <c r="AB57" s="229"/>
-      <c r="AC57" s="229"/>
-      <c r="AD57" s="230"/>
-      <c r="AE57" s="251"/>
-      <c r="AF57" s="231">
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="148"/>
+      <c r="K57" s="148"/>
+      <c r="L57" s="148"/>
+      <c r="M57" s="148"/>
+      <c r="N57" s="148"/>
+      <c r="O57" s="148"/>
+      <c r="P57" s="148"/>
+      <c r="Q57" s="148"/>
+      <c r="R57" s="148"/>
+      <c r="S57" s="148"/>
+      <c r="T57" s="148"/>
+      <c r="U57" s="148"/>
+      <c r="V57" s="148"/>
+      <c r="W57" s="148"/>
+      <c r="X57" s="148"/>
+      <c r="Y57" s="148"/>
+      <c r="Z57" s="148"/>
+      <c r="AA57" s="148"/>
+      <c r="AB57" s="148"/>
+      <c r="AC57" s="149"/>
+      <c r="AD57" s="138"/>
+      <c r="AE57" s="124">
         <v>36</v>
       </c>
-      <c r="AG57" s="219" t="s">
+      <c r="AF57" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="AH57" s="126"/>
-      <c r="AI57" s="126"/>
-      <c r="AJ57" s="126"/>
-      <c r="AK57" s="126"/>
-      <c r="AL57" s="126"/>
-      <c r="AM57" s="126"/>
-      <c r="AN57" s="127"/>
+      <c r="AG57" s="114"/>
+      <c r="AH57" s="114"/>
+      <c r="AI57" s="114"/>
+      <c r="AJ57" s="114"/>
+      <c r="AK57" s="114"/>
+      <c r="AL57" s="114"/>
+      <c r="AM57" s="115"/>
+      <c r="AN57" s="85"/>
       <c r="AO57" s="85"/>
       <c r="AP57" s="85"/>
       <c r="AQ57" s="85"/>
@@ -5673,320 +5624,208 @@
       <c r="BD57" s="85"/>
       <c r="BE57" s="85"/>
       <c r="BF57" s="85"/>
-      <c r="BG57" s="85"/>
-      <c r="BH57" s="18"/>
-    </row>
-    <row r="58" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="251"/>
-      <c r="B58" s="273">
+      <c r="BG57" s="18"/>
+    </row>
+    <row r="58" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="138"/>
+      <c r="B58" s="102">
         <v>50</v>
       </c>
-      <c r="C58" s="274"/>
-      <c r="D58" s="235" t="s">
+      <c r="C58" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="236"/>
-      <c r="F58" s="237"/>
-      <c r="G58" s="237"/>
-      <c r="H58" s="237"/>
-      <c r="I58" s="237"/>
-      <c r="J58" s="237"/>
-      <c r="K58" s="237"/>
-      <c r="L58" s="237"/>
-      <c r="M58" s="237"/>
-      <c r="N58" s="237"/>
-      <c r="O58" s="237"/>
-      <c r="P58" s="237"/>
-      <c r="Q58" s="237"/>
-      <c r="R58" s="237"/>
-      <c r="S58" s="237"/>
-      <c r="T58" s="237"/>
-      <c r="U58" s="237"/>
-      <c r="V58" s="237"/>
-      <c r="W58" s="237"/>
-      <c r="X58" s="237"/>
-      <c r="Y58" s="237"/>
-      <c r="Z58" s="237"/>
-      <c r="AA58" s="237"/>
-      <c r="AB58" s="237"/>
-      <c r="AC58" s="238"/>
-      <c r="AD58" s="239"/>
-      <c r="AE58" s="251"/>
-      <c r="AF58" s="231"/>
-      <c r="AG58" s="232"/>
-      <c r="AH58" s="233"/>
-      <c r="AI58" s="233"/>
-      <c r="AJ58" s="233"/>
-      <c r="AK58" s="233"/>
-      <c r="AL58" s="233"/>
-      <c r="AM58" s="233"/>
-      <c r="AN58" s="234"/>
-    </row>
-    <row r="59" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="251"/>
-      <c r="B59" s="273">
+      <c r="D58" s="120"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="121"/>
+      <c r="N58" s="121"/>
+      <c r="O58" s="121"/>
+      <c r="P58" s="121"/>
+      <c r="Q58" s="121"/>
+      <c r="R58" s="121"/>
+      <c r="S58" s="121"/>
+      <c r="T58" s="121"/>
+      <c r="U58" s="121"/>
+      <c r="V58" s="121"/>
+      <c r="W58" s="121"/>
+      <c r="X58" s="121"/>
+      <c r="Y58" s="121"/>
+      <c r="Z58" s="121"/>
+      <c r="AA58" s="121"/>
+      <c r="AB58" s="122"/>
+      <c r="AC58" s="123"/>
+      <c r="AD58" s="138"/>
+      <c r="AE58" s="124"/>
+      <c r="AF58" s="116"/>
+      <c r="AG58" s="117"/>
+      <c r="AH58" s="117"/>
+      <c r="AI58" s="117"/>
+      <c r="AJ58" s="117"/>
+      <c r="AK58" s="117"/>
+      <c r="AL58" s="117"/>
+      <c r="AM58" s="118"/>
+    </row>
+    <row r="59" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="138"/>
+      <c r="B59" s="102">
         <v>51</v>
       </c>
-      <c r="C59" s="274"/>
-      <c r="D59" s="235" t="s">
+      <c r="C59" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="236"/>
-      <c r="F59" s="237"/>
-      <c r="G59" s="237"/>
-      <c r="H59" s="237"/>
-      <c r="I59" s="237"/>
-      <c r="J59" s="237"/>
-      <c r="K59" s="237"/>
-      <c r="L59" s="237"/>
-      <c r="M59" s="237"/>
-      <c r="N59" s="237"/>
-      <c r="O59" s="237"/>
-      <c r="P59" s="237"/>
-      <c r="Q59" s="237"/>
-      <c r="R59" s="237"/>
-      <c r="S59" s="237"/>
-      <c r="T59" s="237"/>
-      <c r="U59" s="237"/>
-      <c r="V59" s="237"/>
-      <c r="W59" s="237"/>
-      <c r="X59" s="237"/>
-      <c r="Y59" s="237"/>
-      <c r="Z59" s="237"/>
-      <c r="AA59" s="237"/>
-      <c r="AB59" s="237"/>
-      <c r="AC59" s="238"/>
-      <c r="AD59" s="239"/>
-      <c r="AE59" s="251"/>
-      <c r="AF59" s="231">
+      <c r="D59" s="120"/>
+      <c r="E59" s="121"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="121"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="121"/>
+      <c r="K59" s="121"/>
+      <c r="L59" s="121"/>
+      <c r="M59" s="121"/>
+      <c r="N59" s="121"/>
+      <c r="O59" s="121"/>
+      <c r="P59" s="121"/>
+      <c r="Q59" s="121"/>
+      <c r="R59" s="121"/>
+      <c r="S59" s="121"/>
+      <c r="T59" s="121"/>
+      <c r="U59" s="121"/>
+      <c r="V59" s="121"/>
+      <c r="W59" s="121"/>
+      <c r="X59" s="121"/>
+      <c r="Y59" s="121"/>
+      <c r="Z59" s="121"/>
+      <c r="AA59" s="121"/>
+      <c r="AB59" s="122"/>
+      <c r="AC59" s="123"/>
+      <c r="AD59" s="138"/>
+      <c r="AE59" s="124">
         <v>37</v>
       </c>
-      <c r="AG59" s="241" t="s">
+      <c r="AF59" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="AH59" s="242"/>
-      <c r="AI59" s="242"/>
-      <c r="AJ59" s="242"/>
-      <c r="AK59" s="242"/>
-      <c r="AL59" s="242"/>
-      <c r="AM59" s="242"/>
-      <c r="AN59" s="243"/>
-    </row>
-    <row r="60" spans="1:60" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="252"/>
-      <c r="B60" s="275">
+      <c r="AG59" s="127"/>
+      <c r="AH59" s="127"/>
+      <c r="AI59" s="127"/>
+      <c r="AJ59" s="127"/>
+      <c r="AK59" s="127"/>
+      <c r="AL59" s="127"/>
+      <c r="AM59" s="128"/>
+    </row>
+    <row r="60" spans="1:59" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="139"/>
+      <c r="B60" s="103">
         <v>52</v>
       </c>
-      <c r="C60" s="276"/>
-      <c r="D60" s="245" t="s">
+      <c r="C60" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="246"/>
-      <c r="F60" s="247"/>
-      <c r="G60" s="247"/>
-      <c r="H60" s="247"/>
-      <c r="I60" s="247"/>
-      <c r="J60" s="247"/>
-      <c r="K60" s="247"/>
-      <c r="L60" s="247"/>
-      <c r="M60" s="247"/>
-      <c r="N60" s="247"/>
-      <c r="O60" s="247"/>
-      <c r="P60" s="247"/>
-      <c r="Q60" s="247"/>
-      <c r="R60" s="247"/>
-      <c r="S60" s="247"/>
-      <c r="T60" s="247"/>
-      <c r="U60" s="247"/>
-      <c r="V60" s="247"/>
-      <c r="W60" s="247"/>
-      <c r="X60" s="247"/>
-      <c r="Y60" s="247"/>
-      <c r="Z60" s="247"/>
-      <c r="AA60" s="247"/>
-      <c r="AB60" s="247"/>
-      <c r="AC60" s="248"/>
-      <c r="AD60" s="249"/>
-      <c r="AE60" s="252"/>
-      <c r="AF60" s="240"/>
-      <c r="AG60" s="221"/>
-      <c r="AH60" s="222"/>
-      <c r="AI60" s="222"/>
-      <c r="AJ60" s="222"/>
-      <c r="AK60" s="222"/>
-      <c r="AL60" s="222"/>
-      <c r="AM60" s="222"/>
-      <c r="AN60" s="244"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
+      <c r="N60" s="134"/>
+      <c r="O60" s="134"/>
+      <c r="P60" s="134"/>
+      <c r="Q60" s="134"/>
+      <c r="R60" s="134"/>
+      <c r="S60" s="134"/>
+      <c r="T60" s="134"/>
+      <c r="U60" s="134"/>
+      <c r="V60" s="134"/>
+      <c r="W60" s="134"/>
+      <c r="X60" s="134"/>
+      <c r="Y60" s="134"/>
+      <c r="Z60" s="134"/>
+      <c r="AA60" s="134"/>
+      <c r="AB60" s="135"/>
+      <c r="AC60" s="136"/>
+      <c r="AD60" s="139"/>
+      <c r="AE60" s="125"/>
+      <c r="AF60" s="129"/>
+      <c r="AG60" s="130"/>
+      <c r="AH60" s="130"/>
+      <c r="AI60" s="130"/>
+      <c r="AJ60" s="130"/>
+      <c r="AK60" s="130"/>
+      <c r="AL60" s="130"/>
+      <c r="AM60" s="131"/>
     </row>
   </sheetData>
   <sheetProtection password="84CA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="228">
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="AG57:AN58"/>
-    <mergeCell ref="D58:AD58"/>
-    <mergeCell ref="D59:AD59"/>
-    <mergeCell ref="AF59:AF60"/>
-    <mergeCell ref="AG59:AN60"/>
-    <mergeCell ref="D60:AD60"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="D53:AD53"/>
-    <mergeCell ref="AE53:AE60"/>
-    <mergeCell ref="AF53:AF54"/>
-    <mergeCell ref="AG53:AN54"/>
-    <mergeCell ref="D54:AD54"/>
-    <mergeCell ref="D55:AD55"/>
-    <mergeCell ref="AF55:AF56"/>
-    <mergeCell ref="AG55:AN56"/>
-    <mergeCell ref="D56:AD56"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="D57:AD57"/>
-    <mergeCell ref="AF57:AF58"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="A47:E51"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="A21:A35"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AI20"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="U19:W20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="O12:O18"/>
-    <mergeCell ref="P12:P18"/>
-    <mergeCell ref="Q12:Q18"/>
-    <mergeCell ref="R12:R18"/>
-    <mergeCell ref="S12:T18"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="H12:H18"/>
+  <mergeCells count="219">
+    <mergeCell ref="AB5:AM9"/>
+    <mergeCell ref="A1:D9"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="AB1:AM4"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="F3:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D10:D20"/>
+    <mergeCell ref="E10:E18"/>
     <mergeCell ref="I12:I18"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="AC10:AH10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="AC11:AH11"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:AB11"/>
+    <mergeCell ref="J12:J18"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="L10:S10"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="AA12:AA18"/>
+    <mergeCell ref="L12:M18"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="L11:S11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="AK12:AK18"/>
     <mergeCell ref="AL12:AL18"/>
     <mergeCell ref="AM12:AM18"/>
-    <mergeCell ref="AN12:AN18"/>
+    <mergeCell ref="AB12:AB18"/>
     <mergeCell ref="AC12:AC18"/>
     <mergeCell ref="AD12:AD18"/>
     <mergeCell ref="AE12:AE18"/>
@@ -5995,60 +5834,159 @@
     <mergeCell ref="AH12:AH18"/>
     <mergeCell ref="AI12:AI18"/>
     <mergeCell ref="AJ12:AJ18"/>
-    <mergeCell ref="AK12:AK18"/>
-    <mergeCell ref="U12:W18"/>
+    <mergeCell ref="T12:V18"/>
+    <mergeCell ref="W12:W18"/>
     <mergeCell ref="X12:X18"/>
     <mergeCell ref="Y12:Y18"/>
     <mergeCell ref="Z12:Z18"/>
-    <mergeCell ref="AA12:AA18"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="D10:D20"/>
-    <mergeCell ref="E10:E20"/>
-    <mergeCell ref="F10:F18"/>
-    <mergeCell ref="J12:J18"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="U10:AB10"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="O12:O18"/>
+    <mergeCell ref="P12:P18"/>
+    <mergeCell ref="Q12:Q18"/>
+    <mergeCell ref="R12:S18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="AB12:AB18"/>
-    <mergeCell ref="M12:N18"/>
-    <mergeCell ref="AC5:AN9"/>
-    <mergeCell ref="A1:E9"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="AC1:AN4"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="G3:K4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AI19:AI20"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="R19:S20"/>
+    <mergeCell ref="T19:V20"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="A47:D51"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="C57:AC57"/>
+    <mergeCell ref="AE57:AE58"/>
+    <mergeCell ref="AF57:AM58"/>
+    <mergeCell ref="C58:AC58"/>
+    <mergeCell ref="C59:AC59"/>
+    <mergeCell ref="AE59:AE60"/>
+    <mergeCell ref="AF59:AM60"/>
+    <mergeCell ref="C60:AC60"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="C53:AC53"/>
+    <mergeCell ref="AD53:AD60"/>
+    <mergeCell ref="AE53:AE54"/>
+    <mergeCell ref="AF53:AM54"/>
+    <mergeCell ref="C54:AC54"/>
+    <mergeCell ref="C55:AC55"/>
+    <mergeCell ref="AE55:AE56"/>
+    <mergeCell ref="AF55:AM56"/>
+    <mergeCell ref="C56:AC56"/>
+    <mergeCell ref="B10:B20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6091,79 +6029,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="str">
-        <f>'Segunda a Sexta'!A1:E9</f>
+      <c r="A1" s="240" t="str">
+        <f>'Segunda a Sexta'!A1:D9</f>
         <v>##NOMESETOR##</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="101" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="117" t="s">
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="119"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="248"/>
+      <c r="T1" s="249"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="120" t="s">
+      <c r="V1" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="122" t="s">
+      <c r="W1" s="250"/>
+      <c r="X1" s="250"/>
+      <c r="Y1" s="250"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="250"/>
+      <c r="AB1" s="251"/>
+      <c r="AC1" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="124"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
+      <c r="AL1" s="145"/>
+      <c r="AM1" s="145"/>
+      <c r="AN1" s="146"/>
     </row>
     <row r="2" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="133"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="257"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
       <c r="U2" s="7"/>
       <c r="V2" s="83"/>
       <c r="W2" s="83"/>
@@ -6172,31 +6110,31 @@
       <c r="Z2" s="83"/>
       <c r="AA2" s="83"/>
       <c r="AB2" s="84"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="127"/>
+      <c r="AC2" s="253"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="114"/>
+      <c r="AN2" s="115"/>
     </row>
     <row r="3" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="245"/>
       <c r="F3" s="70"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
       <c r="L3" s="71"/>
       <c r="M3" s="72"/>
       <c r="N3" s="73"/>
@@ -6214,69 +6152,69 @@
       <c r="Z3" s="75"/>
       <c r="AA3" s="75"/>
       <c r="AB3" s="86"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="126"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="126"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="127"/>
+      <c r="AC3" s="253"/>
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="114"/>
+      <c r="AN3" s="115"/>
     </row>
     <row r="4" spans="1:40" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="244"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="245"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
       <c r="T4" s="11"/>
       <c r="U4" s="69"/>
       <c r="V4" s="5"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="138" t="s">
+      <c r="X4" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="138"/>
+      <c r="Y4" s="210"/>
+      <c r="Z4" s="210"/>
+      <c r="AA4" s="210"/>
       <c r="AB4" s="86"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="127"/>
+      <c r="AC4" s="253"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="115"/>
     </row>
     <row r="5" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="245"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6285,12 +6223,12 @@
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="266"/>
+      <c r="P5" s="267"/>
+      <c r="Q5" s="268"/>
+      <c r="R5" s="266"/>
+      <c r="S5" s="266"/>
       <c r="T5" s="11"/>
       <c r="U5" s="69"/>
       <c r="V5" s="1"/>
@@ -6300,75 +6238,75 @@
       <c r="Z5" s="65"/>
       <c r="AA5" s="65"/>
       <c r="AB5" s="87"/>
-      <c r="AC5" s="101" t="str">
-        <f>'Segunda a Sexta'!AC5:AN9</f>
-        <v>##NOMEPLANILHA##</v>
-      </c>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="102"/>
-      <c r="AJ5" s="102"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="103"/>
+      <c r="AC5" s="233">
+        <f>'Segunda a Sexta'!AB5:AM9</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="234"/>
+      <c r="AE5" s="234"/>
+      <c r="AF5" s="234"/>
+      <c r="AG5" s="234"/>
+      <c r="AH5" s="234"/>
+      <c r="AI5" s="234"/>
+      <c r="AJ5" s="234"/>
+      <c r="AK5" s="234"/>
+      <c r="AL5" s="234"/>
+      <c r="AM5" s="234"/>
+      <c r="AN5" s="235"/>
     </row>
     <row r="6" spans="1:40" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="104" t="str">
-        <f>'Segunda a Sexta'!F6:L6</f>
-        <v>##NOMERESP##</v>
-      </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="136"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="244"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="207">
+        <f>'Segunda a Sexta'!E6:K6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
+      <c r="K6" s="208"/>
+      <c r="L6" s="209"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="137"/>
-      <c r="S6" s="137"/>
+      <c r="N6" s="262"/>
+      <c r="O6" s="262"/>
+      <c r="P6" s="262"/>
+      <c r="Q6" s="262"/>
+      <c r="R6" s="262"/>
+      <c r="S6" s="262"/>
       <c r="T6" s="11"/>
       <c r="U6" s="7"/>
       <c r="V6" s="5"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="138" t="s">
+      <c r="X6" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="139"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="106"/>
+      <c r="Y6" s="210"/>
+      <c r="Z6" s="210"/>
+      <c r="AA6" s="210"/>
+      <c r="AB6" s="211"/>
+      <c r="AC6" s="207"/>
+      <c r="AD6" s="208"/>
+      <c r="AE6" s="208"/>
+      <c r="AF6" s="208"/>
+      <c r="AG6" s="208"/>
+      <c r="AH6" s="208"/>
+      <c r="AI6" s="208"/>
+      <c r="AJ6" s="208"/>
+      <c r="AK6" s="208"/>
+      <c r="AL6" s="208"/>
+      <c r="AM6" s="208"/>
+      <c r="AN6" s="236"/>
     </row>
     <row r="7" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
+      <c r="A7" s="243"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="245"/>
       <c r="F7" s="66"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
@@ -6377,12 +6315,12 @@
       <c r="K7" s="67"/>
       <c r="L7" s="68"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="140"/>
+      <c r="N7" s="263"/>
+      <c r="O7" s="264"/>
+      <c r="P7" s="265"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="265"/>
+      <c r="S7" s="263"/>
       <c r="T7" s="13"/>
       <c r="U7" s="7"/>
       <c r="V7" s="1"/>
@@ -6392,35 +6330,35 @@
       <c r="Z7" s="65"/>
       <c r="AA7" s="65"/>
       <c r="AB7" s="87"/>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="106"/>
+      <c r="AC7" s="207"/>
+      <c r="AD7" s="208"/>
+      <c r="AE7" s="208"/>
+      <c r="AF7" s="208"/>
+      <c r="AG7" s="208"/>
+      <c r="AH7" s="208"/>
+      <c r="AI7" s="208"/>
+      <c r="AJ7" s="208"/>
+      <c r="AK7" s="208"/>
+      <c r="AL7" s="208"/>
+      <c r="AM7" s="208"/>
+      <c r="AN7" s="236"/>
     </row>
     <row r="8" spans="1:40" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="104" t="str">
-        <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: ##MATRRESP##</v>
-      </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="136"/>
+      <c r="A8" s="243"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="207">
+        <f>'Segunda a Sexta'!E8:K8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="209"/>
       <c r="M8" s="14"/>
       <c r="N8" s="15"/>
       <c r="O8" s="16"/>
@@ -6432,622 +6370,622 @@
       <c r="U8" s="7"/>
       <c r="V8" s="5"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="138" t="s">
+      <c r="X8" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="Y8" s="138"/>
-      <c r="Z8" s="138"/>
-      <c r="AA8" s="138"/>
-      <c r="AB8" s="139"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="106"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210"/>
+      <c r="AA8" s="210"/>
+      <c r="AB8" s="211"/>
+      <c r="AC8" s="207"/>
+      <c r="AD8" s="208"/>
+      <c r="AE8" s="208"/>
+      <c r="AF8" s="208"/>
+      <c r="AG8" s="208"/>
+      <c r="AH8" s="208"/>
+      <c r="AI8" s="208"/>
+      <c r="AJ8" s="208"/>
+      <c r="AK8" s="208"/>
+      <c r="AL8" s="208"/>
+      <c r="AM8" s="208"/>
+      <c r="AN8" s="236"/>
     </row>
     <row r="9" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="148"/>
+      <c r="A9" s="243"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="208"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="209"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="213"/>
+      <c r="P9" s="213"/>
+      <c r="Q9" s="213"/>
+      <c r="R9" s="213"/>
+      <c r="S9" s="213"/>
+      <c r="T9" s="214"/>
       <c r="U9" s="69"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="138"/>
-      <c r="AA9" s="138"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="210"/>
+      <c r="Z9" s="210"/>
+      <c r="AA9" s="210"/>
       <c r="AB9" s="88"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="108"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="108"/>
-      <c r="AM9" s="108"/>
-      <c r="AN9" s="109"/>
+      <c r="AC9" s="237"/>
+      <c r="AD9" s="238"/>
+      <c r="AE9" s="238"/>
+      <c r="AF9" s="238"/>
+      <c r="AG9" s="238"/>
+      <c r="AH9" s="238"/>
+      <c r="AI9" s="238"/>
+      <c r="AJ9" s="238"/>
+      <c r="AK9" s="238"/>
+      <c r="AL9" s="238"/>
+      <c r="AM9" s="238"/>
+      <c r="AN9" s="239"/>
     </row>
     <row r="10" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="149"/>
-      <c r="B10" s="268" t="s">
+      <c r="A10" s="215"/>
+      <c r="B10" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="E10" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="158"/>
-      <c r="G10" s="163" t="s">
+      <c r="F10" s="224"/>
+      <c r="G10" s="193" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="163" t="s">
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="165"/>
-      <c r="U10" s="259"/>
-      <c r="V10" s="260"/>
-      <c r="W10" s="260"/>
-      <c r="X10" s="260"/>
-      <c r="Y10" s="260"/>
-      <c r="Z10" s="260"/>
-      <c r="AA10" s="260"/>
-      <c r="AB10" s="260"/>
-      <c r="AC10" s="260"/>
-      <c r="AD10" s="260"/>
-      <c r="AE10" s="260"/>
-      <c r="AF10" s="260"/>
-      <c r="AG10" s="260"/>
-      <c r="AH10" s="260"/>
-      <c r="AI10" s="260"/>
-      <c r="AJ10" s="260"/>
-      <c r="AK10" s="260"/>
-      <c r="AL10" s="260"/>
-      <c r="AM10" s="260"/>
-      <c r="AN10" s="261"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="195"/>
+      <c r="U10" s="269"/>
+      <c r="V10" s="270"/>
+      <c r="W10" s="270"/>
+      <c r="X10" s="270"/>
+      <c r="Y10" s="270"/>
+      <c r="Z10" s="270"/>
+      <c r="AA10" s="270"/>
+      <c r="AB10" s="270"/>
+      <c r="AC10" s="270"/>
+      <c r="AD10" s="270"/>
+      <c r="AE10" s="270"/>
+      <c r="AF10" s="270"/>
+      <c r="AG10" s="270"/>
+      <c r="AH10" s="270"/>
+      <c r="AI10" s="270"/>
+      <c r="AJ10" s="270"/>
+      <c r="AK10" s="270"/>
+      <c r="AL10" s="270"/>
+      <c r="AM10" s="270"/>
+      <c r="AN10" s="271"/>
     </row>
     <row r="11" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="150"/>
-      <c r="B11" s="269"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="177">
+      <c r="A11" s="216"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="225"/>
+      <c r="G11" s="197">
         <v>36892</v>
       </c>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="177">
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="197">
         <v>36892</v>
       </c>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
-      <c r="P11" s="178"/>
-      <c r="Q11" s="178"/>
-      <c r="R11" s="178"/>
-      <c r="S11" s="178"/>
-      <c r="T11" s="179"/>
-      <c r="U11" s="262"/>
-      <c r="V11" s="263"/>
-      <c r="W11" s="263"/>
-      <c r="X11" s="263"/>
-      <c r="Y11" s="263"/>
-      <c r="Z11" s="263"/>
-      <c r="AA11" s="263"/>
-      <c r="AB11" s="263"/>
-      <c r="AC11" s="263"/>
-      <c r="AD11" s="263"/>
-      <c r="AE11" s="263"/>
-      <c r="AF11" s="263"/>
-      <c r="AG11" s="263"/>
-      <c r="AH11" s="263"/>
-      <c r="AI11" s="263"/>
-      <c r="AJ11" s="263"/>
-      <c r="AK11" s="263"/>
-      <c r="AL11" s="263"/>
-      <c r="AM11" s="263"/>
-      <c r="AN11" s="264"/>
+      <c r="N11" s="198"/>
+      <c r="O11" s="198"/>
+      <c r="P11" s="198"/>
+      <c r="Q11" s="198"/>
+      <c r="R11" s="198"/>
+      <c r="S11" s="198"/>
+      <c r="T11" s="199"/>
+      <c r="U11" s="272"/>
+      <c r="V11" s="273"/>
+      <c r="W11" s="273"/>
+      <c r="X11" s="273"/>
+      <c r="Y11" s="273"/>
+      <c r="Z11" s="273"/>
+      <c r="AA11" s="273"/>
+      <c r="AB11" s="273"/>
+      <c r="AC11" s="273"/>
+      <c r="AD11" s="273"/>
+      <c r="AE11" s="273"/>
+      <c r="AF11" s="273"/>
+      <c r="AG11" s="273"/>
+      <c r="AH11" s="273"/>
+      <c r="AI11" s="273"/>
+      <c r="AJ11" s="273"/>
+      <c r="AK11" s="273"/>
+      <c r="AL11" s="273"/>
+      <c r="AM11" s="273"/>
+      <c r="AN11" s="274"/>
     </row>
     <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="150"/>
-      <c r="B12" s="269"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="174" t="str">
+      <c r="A12" s="216"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="191" t="str">
+        <f>'Segunda a Sexta'!F12:F18</f>
+        <v>##NOME1##</v>
+      </c>
+      <c r="H12" s="187" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
+        <v>##NOME2##</v>
+      </c>
+      <c r="I12" s="187" t="str">
+        <f>'Segunda a Sexta'!H12:H18</f>
+        <v>##NOME3##</v>
+      </c>
+      <c r="J12" s="187" t="str">
+        <f>'Segunda a Sexta'!I12:I18</f>
+        <v>##NOME4##</v>
+      </c>
+      <c r="K12" s="187" t="str">
+        <f>'Segunda a Sexta'!J12:J18</f>
+        <v>##NOME5##</v>
+      </c>
+      <c r="L12" s="187" t="str">
+        <f>'Segunda a Sexta'!K12:K18</f>
+        <v>##NOME6##</v>
+      </c>
+      <c r="M12" s="191" t="str">
+        <f>'Segunda a Sexta'!F12:F18</f>
         <v>##NOME1##</v>
       </c>
-      <c r="H12" s="161" t="str">
+      <c r="N12" s="187"/>
+      <c r="O12" s="185" t="str">
+        <f>'Segunda a Sexta'!G12:G18</f>
+        <v>##NOME2##</v>
+      </c>
+      <c r="P12" s="185" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>##NOME2##</v>
-      </c>
-      <c r="I12" s="161" t="str">
+        <v>##NOME3##</v>
+      </c>
+      <c r="Q12" s="185" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>##NOME3##</v>
-      </c>
-      <c r="J12" s="161" t="str">
+        <v>##NOME4##</v>
+      </c>
+      <c r="R12" s="185" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>##NOME4##</v>
-      </c>
-      <c r="K12" s="161" t="str">
+        <v>##NOME5##</v>
+      </c>
+      <c r="S12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>##NOME5##</v>
-      </c>
-      <c r="L12" s="161" t="str">
-        <f>'Segunda a Sexta'!L12:L18</f>
         <v>##NOME6##</v>
       </c>
-      <c r="M12" s="174" t="str">
-        <f>'Segunda a Sexta'!G12:G18</f>
-        <v>##NOME1##</v>
-      </c>
-      <c r="N12" s="161"/>
-      <c r="O12" s="187" t="str">
-        <f>'Segunda a Sexta'!H12:H18</f>
-        <v>##NOME2##</v>
-      </c>
-      <c r="P12" s="187" t="str">
-        <f>'Segunda a Sexta'!I12:I18</f>
-        <v>##NOME3##</v>
-      </c>
-      <c r="Q12" s="187" t="str">
-        <f>'Segunda a Sexta'!J12:J18</f>
-        <v>##NOME4##</v>
-      </c>
-      <c r="R12" s="187" t="str">
-        <f>'Segunda a Sexta'!K12:K18</f>
-        <v>##NOME5##</v>
-      </c>
-      <c r="S12" s="161" t="str">
-        <f>'Segunda a Sexta'!L12:L18</f>
-        <v>##NOME6##</v>
-      </c>
       <c r="T12" s="189"/>
-      <c r="U12" s="262"/>
-      <c r="V12" s="263"/>
-      <c r="W12" s="263"/>
-      <c r="X12" s="263"/>
-      <c r="Y12" s="263"/>
-      <c r="Z12" s="263"/>
-      <c r="AA12" s="263"/>
-      <c r="AB12" s="263"/>
-      <c r="AC12" s="263"/>
-      <c r="AD12" s="263"/>
-      <c r="AE12" s="263"/>
-      <c r="AF12" s="263"/>
-      <c r="AG12" s="263"/>
-      <c r="AH12" s="263"/>
-      <c r="AI12" s="263"/>
-      <c r="AJ12" s="263"/>
-      <c r="AK12" s="263"/>
-      <c r="AL12" s="263"/>
-      <c r="AM12" s="263"/>
-      <c r="AN12" s="264"/>
+      <c r="U12" s="272"/>
+      <c r="V12" s="273"/>
+      <c r="W12" s="273"/>
+      <c r="X12" s="273"/>
+      <c r="Y12" s="273"/>
+      <c r="Z12" s="273"/>
+      <c r="AA12" s="273"/>
+      <c r="AB12" s="273"/>
+      <c r="AC12" s="273"/>
+      <c r="AD12" s="273"/>
+      <c r="AE12" s="273"/>
+      <c r="AF12" s="273"/>
+      <c r="AG12" s="273"/>
+      <c r="AH12" s="273"/>
+      <c r="AI12" s="273"/>
+      <c r="AJ12" s="273"/>
+      <c r="AK12" s="273"/>
+      <c r="AL12" s="273"/>
+      <c r="AM12" s="273"/>
+      <c r="AN12" s="274"/>
     </row>
     <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="150"/>
-      <c r="B13" s="269"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="188"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="188"/>
-      <c r="R13" s="188"/>
-      <c r="S13" s="162"/>
+      <c r="A13" s="216"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="192"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="186"/>
+      <c r="S13" s="188"/>
       <c r="T13" s="190"/>
-      <c r="U13" s="262"/>
-      <c r="V13" s="263"/>
-      <c r="W13" s="263"/>
-      <c r="X13" s="263"/>
-      <c r="Y13" s="263"/>
-      <c r="Z13" s="263"/>
-      <c r="AA13" s="263"/>
-      <c r="AB13" s="263"/>
-      <c r="AC13" s="263"/>
-      <c r="AD13" s="263"/>
-      <c r="AE13" s="263"/>
-      <c r="AF13" s="263"/>
-      <c r="AG13" s="263"/>
-      <c r="AH13" s="263"/>
-      <c r="AI13" s="263"/>
-      <c r="AJ13" s="263"/>
-      <c r="AK13" s="263"/>
-      <c r="AL13" s="263"/>
-      <c r="AM13" s="263"/>
-      <c r="AN13" s="264"/>
+      <c r="U13" s="272"/>
+      <c r="V13" s="273"/>
+      <c r="W13" s="273"/>
+      <c r="X13" s="273"/>
+      <c r="Y13" s="273"/>
+      <c r="Z13" s="273"/>
+      <c r="AA13" s="273"/>
+      <c r="AB13" s="273"/>
+      <c r="AC13" s="273"/>
+      <c r="AD13" s="273"/>
+      <c r="AE13" s="273"/>
+      <c r="AF13" s="273"/>
+      <c r="AG13" s="273"/>
+      <c r="AH13" s="273"/>
+      <c r="AI13" s="273"/>
+      <c r="AJ13" s="273"/>
+      <c r="AK13" s="273"/>
+      <c r="AL13" s="273"/>
+      <c r="AM13" s="273"/>
+      <c r="AN13" s="274"/>
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="150"/>
-      <c r="B14" s="269"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="188"/>
-      <c r="P14" s="188"/>
-      <c r="Q14" s="188"/>
-      <c r="R14" s="188"/>
-      <c r="S14" s="162"/>
+      <c r="A14" s="216"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="225"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="186"/>
+      <c r="P14" s="186"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="186"/>
+      <c r="S14" s="188"/>
       <c r="T14" s="190"/>
-      <c r="U14" s="262"/>
-      <c r="V14" s="263"/>
-      <c r="W14" s="263"/>
-      <c r="X14" s="263"/>
-      <c r="Y14" s="263"/>
-      <c r="Z14" s="263"/>
-      <c r="AA14" s="263"/>
-      <c r="AB14" s="263"/>
-      <c r="AC14" s="263"/>
-      <c r="AD14" s="263"/>
-      <c r="AE14" s="263"/>
-      <c r="AF14" s="263"/>
-      <c r="AG14" s="263"/>
-      <c r="AH14" s="263"/>
-      <c r="AI14" s="263"/>
-      <c r="AJ14" s="263"/>
-      <c r="AK14" s="263"/>
-      <c r="AL14" s="263"/>
-      <c r="AM14" s="263"/>
-      <c r="AN14" s="264"/>
+      <c r="U14" s="272"/>
+      <c r="V14" s="273"/>
+      <c r="W14" s="273"/>
+      <c r="X14" s="273"/>
+      <c r="Y14" s="273"/>
+      <c r="Z14" s="273"/>
+      <c r="AA14" s="273"/>
+      <c r="AB14" s="273"/>
+      <c r="AC14" s="273"/>
+      <c r="AD14" s="273"/>
+      <c r="AE14" s="273"/>
+      <c r="AF14" s="273"/>
+      <c r="AG14" s="273"/>
+      <c r="AH14" s="273"/>
+      <c r="AI14" s="273"/>
+      <c r="AJ14" s="273"/>
+      <c r="AK14" s="273"/>
+      <c r="AL14" s="273"/>
+      <c r="AM14" s="273"/>
+      <c r="AN14" s="274"/>
     </row>
     <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="150"/>
-      <c r="B15" s="269"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="188"/>
-      <c r="P15" s="188"/>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="188"/>
-      <c r="S15" s="162"/>
+      <c r="A15" s="216"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="186"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="186"/>
+      <c r="S15" s="188"/>
       <c r="T15" s="190"/>
-      <c r="U15" s="262"/>
-      <c r="V15" s="263"/>
-      <c r="W15" s="263"/>
-      <c r="X15" s="263"/>
-      <c r="Y15" s="263"/>
-      <c r="Z15" s="263"/>
-      <c r="AA15" s="263"/>
-      <c r="AB15" s="263"/>
-      <c r="AC15" s="263"/>
-      <c r="AD15" s="263"/>
-      <c r="AE15" s="263"/>
-      <c r="AF15" s="263"/>
-      <c r="AG15" s="263"/>
-      <c r="AH15" s="263"/>
-      <c r="AI15" s="263"/>
-      <c r="AJ15" s="263"/>
-      <c r="AK15" s="263"/>
-      <c r="AL15" s="263"/>
-      <c r="AM15" s="263"/>
-      <c r="AN15" s="264"/>
+      <c r="U15" s="272"/>
+      <c r="V15" s="273"/>
+      <c r="W15" s="273"/>
+      <c r="X15" s="273"/>
+      <c r="Y15" s="273"/>
+      <c r="Z15" s="273"/>
+      <c r="AA15" s="273"/>
+      <c r="AB15" s="273"/>
+      <c r="AC15" s="273"/>
+      <c r="AD15" s="273"/>
+      <c r="AE15" s="273"/>
+      <c r="AF15" s="273"/>
+      <c r="AG15" s="273"/>
+      <c r="AH15" s="273"/>
+      <c r="AI15" s="273"/>
+      <c r="AJ15" s="273"/>
+      <c r="AK15" s="273"/>
+      <c r="AL15" s="273"/>
+      <c r="AM15" s="273"/>
+      <c r="AN15" s="274"/>
     </row>
     <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="150"/>
-      <c r="B16" s="269"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="188"/>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="188"/>
-      <c r="R16" s="188"/>
-      <c r="S16" s="162"/>
+      <c r="A16" s="216"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="225"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="188"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="186"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="186"/>
+      <c r="S16" s="188"/>
       <c r="T16" s="190"/>
-      <c r="U16" s="262"/>
-      <c r="V16" s="263"/>
-      <c r="W16" s="263"/>
-      <c r="X16" s="263"/>
-      <c r="Y16" s="263"/>
-      <c r="Z16" s="263"/>
-      <c r="AA16" s="263"/>
-      <c r="AB16" s="263"/>
-      <c r="AC16" s="263"/>
-      <c r="AD16" s="263"/>
-      <c r="AE16" s="263"/>
-      <c r="AF16" s="263"/>
-      <c r="AG16" s="263"/>
-      <c r="AH16" s="263"/>
-      <c r="AI16" s="263"/>
-      <c r="AJ16" s="263"/>
-      <c r="AK16" s="263"/>
-      <c r="AL16" s="263"/>
-      <c r="AM16" s="263"/>
-      <c r="AN16" s="264"/>
+      <c r="U16" s="272"/>
+      <c r="V16" s="273"/>
+      <c r="W16" s="273"/>
+      <c r="X16" s="273"/>
+      <c r="Y16" s="273"/>
+      <c r="Z16" s="273"/>
+      <c r="AA16" s="273"/>
+      <c r="AB16" s="273"/>
+      <c r="AC16" s="273"/>
+      <c r="AD16" s="273"/>
+      <c r="AE16" s="273"/>
+      <c r="AF16" s="273"/>
+      <c r="AG16" s="273"/>
+      <c r="AH16" s="273"/>
+      <c r="AI16" s="273"/>
+      <c r="AJ16" s="273"/>
+      <c r="AK16" s="273"/>
+      <c r="AL16" s="273"/>
+      <c r="AM16" s="273"/>
+      <c r="AN16" s="274"/>
     </row>
     <row r="17" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="150"/>
-      <c r="B17" s="269"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="188"/>
-      <c r="S17" s="162"/>
+      <c r="A17" s="216"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="225"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="188"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="186"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="186"/>
+      <c r="S17" s="188"/>
       <c r="T17" s="190"/>
-      <c r="U17" s="262"/>
-      <c r="V17" s="263"/>
-      <c r="W17" s="263"/>
-      <c r="X17" s="263"/>
-      <c r="Y17" s="263"/>
-      <c r="Z17" s="263"/>
-      <c r="AA17" s="263"/>
-      <c r="AB17" s="263"/>
-      <c r="AC17" s="263"/>
-      <c r="AD17" s="263"/>
-      <c r="AE17" s="263"/>
-      <c r="AF17" s="263"/>
-      <c r="AG17" s="263"/>
-      <c r="AH17" s="263"/>
-      <c r="AI17" s="263"/>
-      <c r="AJ17" s="263"/>
-      <c r="AK17" s="263"/>
-      <c r="AL17" s="263"/>
-      <c r="AM17" s="263"/>
-      <c r="AN17" s="264"/>
+      <c r="U17" s="272"/>
+      <c r="V17" s="273"/>
+      <c r="W17" s="273"/>
+      <c r="X17" s="273"/>
+      <c r="Y17" s="273"/>
+      <c r="Z17" s="273"/>
+      <c r="AA17" s="273"/>
+      <c r="AB17" s="273"/>
+      <c r="AC17" s="273"/>
+      <c r="AD17" s="273"/>
+      <c r="AE17" s="273"/>
+      <c r="AF17" s="273"/>
+      <c r="AG17" s="273"/>
+      <c r="AH17" s="273"/>
+      <c r="AI17" s="273"/>
+      <c r="AJ17" s="273"/>
+      <c r="AK17" s="273"/>
+      <c r="AL17" s="273"/>
+      <c r="AM17" s="273"/>
+      <c r="AN17" s="274"/>
     </row>
     <row r="18" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="162"/>
+      <c r="A18" s="216"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="187"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="188"/>
       <c r="T18" s="190"/>
-      <c r="U18" s="262"/>
-      <c r="V18" s="263"/>
-      <c r="W18" s="263"/>
-      <c r="X18" s="263"/>
-      <c r="Y18" s="263"/>
-      <c r="Z18" s="263"/>
-      <c r="AA18" s="263"/>
-      <c r="AB18" s="263"/>
-      <c r="AC18" s="263"/>
-      <c r="AD18" s="263"/>
-      <c r="AE18" s="263"/>
-      <c r="AF18" s="263"/>
-      <c r="AG18" s="263"/>
-      <c r="AH18" s="263"/>
-      <c r="AI18" s="263"/>
-      <c r="AJ18" s="263"/>
-      <c r="AK18" s="263"/>
-      <c r="AL18" s="263"/>
-      <c r="AM18" s="263"/>
-      <c r="AN18" s="264"/>
+      <c r="U18" s="272"/>
+      <c r="V18" s="273"/>
+      <c r="W18" s="273"/>
+      <c r="X18" s="273"/>
+      <c r="Y18" s="273"/>
+      <c r="Z18" s="273"/>
+      <c r="AA18" s="273"/>
+      <c r="AB18" s="273"/>
+      <c r="AC18" s="273"/>
+      <c r="AD18" s="273"/>
+      <c r="AE18" s="273"/>
+      <c r="AF18" s="273"/>
+      <c r="AG18" s="273"/>
+      <c r="AH18" s="273"/>
+      <c r="AI18" s="273"/>
+      <c r="AJ18" s="273"/>
+      <c r="AK18" s="273"/>
+      <c r="AL18" s="273"/>
+      <c r="AM18" s="273"/>
+      <c r="AN18" s="274"/>
     </row>
     <row r="19" spans="1:40" ht="13.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="150"/>
-      <c r="B19" s="269"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="166" t="s">
+      <c r="A19" s="216"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="222"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="258" t="str">
+      <c r="G19" s="279" t="str">
+        <f>'Segunda a Sexta'!F19:F20</f>
+        <v>##MATR1##</v>
+      </c>
+      <c r="H19" s="229" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
+        <v>##MATR2##</v>
+      </c>
+      <c r="I19" s="229" t="str">
+        <f>'Segunda a Sexta'!H19:H20</f>
+        <v>##MATR3##</v>
+      </c>
+      <c r="J19" s="231" t="str">
+        <f>'Segunda a Sexta'!I19:I20</f>
+        <v>##MATR4##</v>
+      </c>
+      <c r="K19" s="172" t="str">
+        <f>'Segunda a Sexta'!J19:J20</f>
+        <v>##MATR5##</v>
+      </c>
+      <c r="L19" s="172" t="str">
+        <f>'Segunda a Sexta'!K19:K20</f>
+        <v>##MATR6##</v>
+      </c>
+      <c r="M19" s="183" t="str">
+        <f>'Segunda a Sexta'!F19:F20</f>
         <v>##MATR1##</v>
       </c>
-      <c r="H19" s="168" t="str">
+      <c r="N19" s="172"/>
+      <c r="O19" s="278" t="str">
+        <f>'Segunda a Sexta'!G19:G20</f>
+        <v>##MATR2##</v>
+      </c>
+      <c r="P19" s="278" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>##MATR2##</v>
-      </c>
-      <c r="I19" s="168" t="str">
+        <v>##MATR3##</v>
+      </c>
+      <c r="Q19" s="278" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>##MATR3##</v>
-      </c>
-      <c r="J19" s="170" t="str">
+        <v>##MATR4##</v>
+      </c>
+      <c r="R19" s="278" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>##MATR4##</v>
-      </c>
-      <c r="K19" s="172" t="str">
+        <v>##MATR5##</v>
+      </c>
+      <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>##MATR5##</v>
-      </c>
-      <c r="L19" s="172" t="str">
-        <f>'Segunda a Sexta'!L19:L20</f>
         <v>##MATR6##</v>
       </c>
-      <c r="M19" s="191" t="str">
-        <f>'Segunda a Sexta'!G19:G20</f>
-        <v>##MATR1##</v>
-      </c>
-      <c r="N19" s="172"/>
-      <c r="O19" s="257" t="str">
-        <f>'Segunda a Sexta'!H19:H20</f>
-        <v>##MATR2##</v>
-      </c>
-      <c r="P19" s="257" t="str">
-        <f>'Segunda a Sexta'!I19:I20</f>
-        <v>##MATR3##</v>
-      </c>
-      <c r="Q19" s="257" t="str">
-        <f>'Segunda a Sexta'!J19:J20</f>
-        <v>##MATR4##</v>
-      </c>
-      <c r="R19" s="257" t="str">
-        <f>'Segunda a Sexta'!K19:K20</f>
-        <v>##MATR5##</v>
-      </c>
-      <c r="S19" s="172" t="str">
-        <f>'Segunda a Sexta'!L19:L20</f>
-        <v>##MATR6##</v>
-      </c>
-      <c r="T19" s="209"/>
-      <c r="U19" s="262"/>
-      <c r="V19" s="263"/>
-      <c r="W19" s="263"/>
-      <c r="X19" s="263"/>
-      <c r="Y19" s="263"/>
-      <c r="Z19" s="263"/>
-      <c r="AA19" s="263"/>
-      <c r="AB19" s="263"/>
-      <c r="AC19" s="263"/>
-      <c r="AD19" s="263"/>
-      <c r="AE19" s="263"/>
-      <c r="AF19" s="263"/>
-      <c r="AG19" s="263"/>
-      <c r="AH19" s="263"/>
-      <c r="AI19" s="263"/>
-      <c r="AJ19" s="263"/>
-      <c r="AK19" s="263"/>
-      <c r="AL19" s="263"/>
-      <c r="AM19" s="263"/>
-      <c r="AN19" s="264"/>
+      <c r="T19" s="181"/>
+      <c r="U19" s="272"/>
+      <c r="V19" s="273"/>
+      <c r="W19" s="273"/>
+      <c r="X19" s="273"/>
+      <c r="Y19" s="273"/>
+      <c r="Z19" s="273"/>
+      <c r="AA19" s="273"/>
+      <c r="AB19" s="273"/>
+      <c r="AC19" s="273"/>
+      <c r="AD19" s="273"/>
+      <c r="AE19" s="273"/>
+      <c r="AF19" s="273"/>
+      <c r="AG19" s="273"/>
+      <c r="AH19" s="273"/>
+      <c r="AI19" s="273"/>
+      <c r="AJ19" s="273"/>
+      <c r="AK19" s="273"/>
+      <c r="AL19" s="273"/>
+      <c r="AM19" s="273"/>
+      <c r="AN19" s="274"/>
     </row>
     <row r="20" spans="1:40" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
-      <c r="B20" s="270"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="206"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="171"/>
+      <c r="A20" s="217"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="230"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="232"/>
       <c r="K20" s="173"/>
       <c r="L20" s="173"/>
-      <c r="M20" s="192"/>
+      <c r="M20" s="184"/>
       <c r="N20" s="173"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="169"/>
-      <c r="Q20" s="169"/>
-      <c r="R20" s="169"/>
+      <c r="O20" s="230"/>
+      <c r="P20" s="230"/>
+      <c r="Q20" s="230"/>
+      <c r="R20" s="230"/>
       <c r="S20" s="173"/>
-      <c r="T20" s="210"/>
-      <c r="U20" s="265"/>
-      <c r="V20" s="266"/>
-      <c r="W20" s="266"/>
-      <c r="X20" s="266"/>
-      <c r="Y20" s="266"/>
-      <c r="Z20" s="266"/>
-      <c r="AA20" s="266"/>
-      <c r="AB20" s="266"/>
-      <c r="AC20" s="266"/>
-      <c r="AD20" s="266"/>
-      <c r="AE20" s="266"/>
-      <c r="AF20" s="266"/>
-      <c r="AG20" s="266"/>
-      <c r="AH20" s="266"/>
-      <c r="AI20" s="266"/>
-      <c r="AJ20" s="266"/>
-      <c r="AK20" s="266"/>
-      <c r="AL20" s="266"/>
-      <c r="AM20" s="266"/>
-      <c r="AN20" s="267"/>
+      <c r="T20" s="182"/>
+      <c r="U20" s="275"/>
+      <c r="V20" s="276"/>
+      <c r="W20" s="276"/>
+      <c r="X20" s="276"/>
+      <c r="Y20" s="276"/>
+      <c r="Z20" s="276"/>
+      <c r="AA20" s="276"/>
+      <c r="AB20" s="276"/>
+      <c r="AC20" s="276"/>
+      <c r="AD20" s="276"/>
+      <c r="AE20" s="276"/>
+      <c r="AF20" s="276"/>
+      <c r="AG20" s="276"/>
+      <c r="AH20" s="276"/>
+      <c r="AI20" s="276"/>
+      <c r="AJ20" s="276"/>
+      <c r="AK20" s="276"/>
+      <c r="AL20" s="276"/>
+      <c r="AM20" s="276"/>
+      <c r="AN20" s="277"/>
     </row>
     <row r="21" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="193" t="s">
+      <c r="A21" s="157" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="19"/>
@@ -7061,17 +6999,17 @@
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
-      <c r="M21" s="196"/>
-      <c r="N21" s="197"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="175"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
-      <c r="S21" s="197"/>
-      <c r="T21" s="198"/>
-      <c r="U21" s="196"/>
-      <c r="V21" s="197"/>
-      <c r="W21" s="197"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="176"/>
+      <c r="U21" s="174"/>
+      <c r="V21" s="175"/>
+      <c r="W21" s="175"/>
       <c r="X21" s="22"/>
       <c r="Y21" s="22"/>
       <c r="Z21" s="22"/>
@@ -7091,7 +7029,7 @@
       <c r="AN21" s="26"/>
     </row>
     <row r="22" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="194"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
@@ -7103,17 +7041,17 @@
       <c r="J22" s="78"/>
       <c r="K22" s="78"/>
       <c r="L22" s="30"/>
-      <c r="M22" s="199"/>
-      <c r="N22" s="200"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="167"/>
       <c r="O22" s="78"/>
       <c r="P22" s="78"/>
       <c r="Q22" s="78"/>
       <c r="R22" s="78"/>
-      <c r="S22" s="200"/>
-      <c r="T22" s="201"/>
-      <c r="U22" s="199"/>
-      <c r="V22" s="200"/>
-      <c r="W22" s="200"/>
+      <c r="S22" s="167"/>
+      <c r="T22" s="168"/>
+      <c r="U22" s="166"/>
+      <c r="V22" s="167"/>
+      <c r="W22" s="167"/>
       <c r="X22" s="78"/>
       <c r="Y22" s="78"/>
       <c r="Z22" s="78"/>
@@ -7133,7 +7071,7 @@
       <c r="AN22" s="31"/>
     </row>
     <row r="23" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="194"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
@@ -7145,17 +7083,17 @@
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
       <c r="L23" s="36"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="203"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="150"/>
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
-      <c r="S23" s="203"/>
-      <c r="T23" s="204"/>
-      <c r="U23" s="202"/>
-      <c r="V23" s="203"/>
-      <c r="W23" s="203"/>
+      <c r="S23" s="150"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="152"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
       <c r="Z23" s="35"/>
@@ -7175,7 +7113,7 @@
       <c r="AN23" s="39"/>
     </row>
     <row r="24" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="194"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
@@ -7187,17 +7125,17 @@
       <c r="J24" s="78"/>
       <c r="K24" s="78"/>
       <c r="L24" s="30"/>
-      <c r="M24" s="199"/>
-      <c r="N24" s="200"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="167"/>
       <c r="O24" s="78"/>
       <c r="P24" s="78"/>
       <c r="Q24" s="78"/>
       <c r="R24" s="78"/>
-      <c r="S24" s="200"/>
-      <c r="T24" s="201"/>
-      <c r="U24" s="199"/>
-      <c r="V24" s="200"/>
-      <c r="W24" s="200"/>
+      <c r="S24" s="167"/>
+      <c r="T24" s="168"/>
+      <c r="U24" s="166"/>
+      <c r="V24" s="167"/>
+      <c r="W24" s="167"/>
       <c r="X24" s="78"/>
       <c r="Y24" s="78"/>
       <c r="Z24" s="78"/>
@@ -7217,7 +7155,7 @@
       <c r="AN24" s="31"/>
     </row>
     <row r="25" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="194"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
@@ -7229,17 +7167,17 @@
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
       <c r="L25" s="36"/>
-      <c r="M25" s="202"/>
-      <c r="N25" s="203"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="150"/>
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
-      <c r="S25" s="203"/>
-      <c r="T25" s="204"/>
-      <c r="U25" s="202"/>
-      <c r="V25" s="203"/>
-      <c r="W25" s="203"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="150"/>
+      <c r="W25" s="150"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
       <c r="Z25" s="35"/>
@@ -7259,7 +7197,7 @@
       <c r="AN25" s="39"/>
     </row>
     <row r="26" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="194"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
@@ -7271,17 +7209,17 @@
       <c r="J26" s="78"/>
       <c r="K26" s="78"/>
       <c r="L26" s="30"/>
-      <c r="M26" s="199"/>
-      <c r="N26" s="200"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="167"/>
       <c r="O26" s="78"/>
       <c r="P26" s="78"/>
       <c r="Q26" s="78"/>
       <c r="R26" s="78"/>
-      <c r="S26" s="200"/>
-      <c r="T26" s="201"/>
-      <c r="U26" s="199"/>
-      <c r="V26" s="200"/>
-      <c r="W26" s="200"/>
+      <c r="S26" s="167"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="166"/>
+      <c r="V26" s="167"/>
+      <c r="W26" s="167"/>
       <c r="X26" s="78"/>
       <c r="Y26" s="78"/>
       <c r="Z26" s="78"/>
@@ -7301,7 +7239,7 @@
       <c r="AN26" s="31"/>
     </row>
     <row r="27" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="194"/>
+      <c r="A27" s="158"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
@@ -7313,17 +7251,17 @@
       <c r="J27" s="35"/>
       <c r="K27" s="35"/>
       <c r="L27" s="36"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="203"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="150"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
-      <c r="S27" s="203"/>
-      <c r="T27" s="204"/>
-      <c r="U27" s="202"/>
-      <c r="V27" s="203"/>
-      <c r="W27" s="203"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
       <c r="Z27" s="35"/>
@@ -7343,7 +7281,7 @@
       <c r="AN27" s="39"/>
     </row>
     <row r="28" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="194"/>
+      <c r="A28" s="158"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -7355,17 +7293,17 @@
       <c r="J28" s="78"/>
       <c r="K28" s="78"/>
       <c r="L28" s="30"/>
-      <c r="M28" s="199"/>
-      <c r="N28" s="200"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="167"/>
       <c r="O28" s="78"/>
       <c r="P28" s="78"/>
       <c r="Q28" s="78"/>
       <c r="R28" s="78"/>
-      <c r="S28" s="200"/>
-      <c r="T28" s="201"/>
-      <c r="U28" s="199"/>
-      <c r="V28" s="200"/>
-      <c r="W28" s="200"/>
+      <c r="S28" s="167"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="166"/>
+      <c r="V28" s="167"/>
+      <c r="W28" s="167"/>
       <c r="X28" s="78"/>
       <c r="Y28" s="78"/>
       <c r="Z28" s="78"/>
@@ -7385,7 +7323,7 @@
       <c r="AN28" s="31"/>
     </row>
     <row r="29" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="194"/>
+      <c r="A29" s="158"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
@@ -7397,17 +7335,17 @@
       <c r="J29" s="35"/>
       <c r="K29" s="35"/>
       <c r="L29" s="36"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="203"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="150"/>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
-      <c r="S29" s="203"/>
-      <c r="T29" s="204"/>
-      <c r="U29" s="202"/>
-      <c r="V29" s="203"/>
-      <c r="W29" s="203"/>
+      <c r="S29" s="150"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="150"/>
+      <c r="W29" s="150"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
       <c r="Z29" s="35"/>
@@ -7427,7 +7365,7 @@
       <c r="AN29" s="39"/>
     </row>
     <row r="30" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="194"/>
+      <c r="A30" s="158"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="28"/>
@@ -7439,17 +7377,17 @@
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
       <c r="L30" s="30"/>
-      <c r="M30" s="199"/>
-      <c r="N30" s="200"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="167"/>
       <c r="O30" s="78"/>
       <c r="P30" s="78"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="78"/>
-      <c r="S30" s="200"/>
-      <c r="T30" s="201"/>
-      <c r="U30" s="199"/>
-      <c r="V30" s="200"/>
-      <c r="W30" s="200"/>
+      <c r="S30" s="167"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="166"/>
+      <c r="V30" s="167"/>
+      <c r="W30" s="167"/>
       <c r="X30" s="78"/>
       <c r="Y30" s="78"/>
       <c r="Z30" s="78"/>
@@ -7469,7 +7407,7 @@
       <c r="AN30" s="31"/>
     </row>
     <row r="31" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="194"/>
+      <c r="A31" s="158"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
@@ -7481,17 +7419,17 @@
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
       <c r="L31" s="36"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="203"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="150"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
-      <c r="S31" s="203"/>
-      <c r="T31" s="204"/>
-      <c r="U31" s="202"/>
-      <c r="V31" s="203"/>
-      <c r="W31" s="203"/>
+      <c r="S31" s="150"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="152"/>
+      <c r="V31" s="150"/>
+      <c r="W31" s="150"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
       <c r="Z31" s="35"/>
@@ -7511,7 +7449,7 @@
       <c r="AN31" s="39"/>
     </row>
     <row r="32" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="194"/>
+      <c r="A32" s="158"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
@@ -7523,17 +7461,17 @@
       <c r="J32" s="78"/>
       <c r="K32" s="78"/>
       <c r="L32" s="30"/>
-      <c r="M32" s="199"/>
-      <c r="N32" s="200"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="167"/>
       <c r="O32" s="78"/>
       <c r="P32" s="78"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="78"/>
-      <c r="S32" s="200"/>
-      <c r="T32" s="201"/>
-      <c r="U32" s="199"/>
-      <c r="V32" s="200"/>
-      <c r="W32" s="200"/>
+      <c r="S32" s="167"/>
+      <c r="T32" s="168"/>
+      <c r="U32" s="166"/>
+      <c r="V32" s="167"/>
+      <c r="W32" s="167"/>
       <c r="X32" s="78"/>
       <c r="Y32" s="78"/>
       <c r="Z32" s="78"/>
@@ -7553,7 +7491,7 @@
       <c r="AN32" s="31"/>
     </row>
     <row r="33" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="194"/>
+      <c r="A33" s="158"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
@@ -7565,17 +7503,17 @@
       <c r="J33" s="35"/>
       <c r="K33" s="35"/>
       <c r="L33" s="36"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="203"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="150"/>
       <c r="O33" s="35"/>
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
-      <c r="S33" s="203"/>
-      <c r="T33" s="204"/>
-      <c r="U33" s="202"/>
-      <c r="V33" s="203"/>
-      <c r="W33" s="203"/>
+      <c r="S33" s="150"/>
+      <c r="T33" s="151"/>
+      <c r="U33" s="152"/>
+      <c r="V33" s="150"/>
+      <c r="W33" s="150"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="35"/>
@@ -7595,7 +7533,7 @@
       <c r="AN33" s="39"/>
     </row>
     <row r="34" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="194"/>
+      <c r="A34" s="158"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
@@ -7607,17 +7545,17 @@
       <c r="J34" s="78"/>
       <c r="K34" s="78"/>
       <c r="L34" s="30"/>
-      <c r="M34" s="199"/>
-      <c r="N34" s="200"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="167"/>
       <c r="O34" s="78"/>
       <c r="P34" s="78"/>
       <c r="Q34" s="78"/>
       <c r="R34" s="78"/>
-      <c r="S34" s="200"/>
-      <c r="T34" s="201"/>
-      <c r="U34" s="199"/>
-      <c r="V34" s="200"/>
-      <c r="W34" s="200"/>
+      <c r="S34" s="167"/>
+      <c r="T34" s="168"/>
+      <c r="U34" s="166"/>
+      <c r="V34" s="167"/>
+      <c r="W34" s="167"/>
       <c r="X34" s="78"/>
       <c r="Y34" s="78"/>
       <c r="Z34" s="78"/>
@@ -7637,7 +7575,7 @@
       <c r="AN34" s="31"/>
     </row>
     <row r="35" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="195"/>
+      <c r="A35" s="159"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
       <c r="D35" s="41"/>
@@ -7649,17 +7587,17 @@
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
       <c r="L35" s="53"/>
-      <c r="M35" s="211"/>
-      <c r="N35" s="212"/>
+      <c r="M35" s="169"/>
+      <c r="N35" s="170"/>
       <c r="O35" s="52"/>
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
-      <c r="S35" s="212"/>
-      <c r="T35" s="213"/>
-      <c r="U35" s="211"/>
-      <c r="V35" s="212"/>
-      <c r="W35" s="212"/>
+      <c r="S35" s="170"/>
+      <c r="T35" s="171"/>
+      <c r="U35" s="169"/>
+      <c r="V35" s="170"/>
+      <c r="W35" s="170"/>
       <c r="X35" s="52"/>
       <c r="Y35" s="52"/>
       <c r="Z35" s="52"/>
@@ -7679,7 +7617,7 @@
       <c r="AN35" s="54"/>
     </row>
     <row r="36" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="193" t="s">
+      <c r="A36" s="157" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="44"/>
@@ -7693,17 +7631,17 @@
       <c r="J36" s="77"/>
       <c r="K36" s="77"/>
       <c r="L36" s="47"/>
-      <c r="M36" s="214"/>
-      <c r="N36" s="215"/>
+      <c r="M36" s="160"/>
+      <c r="N36" s="161"/>
       <c r="O36" s="77"/>
       <c r="P36" s="77"/>
       <c r="Q36" s="77"/>
       <c r="R36" s="77"/>
-      <c r="S36" s="215"/>
-      <c r="T36" s="216"/>
-      <c r="U36" s="214"/>
-      <c r="V36" s="215"/>
-      <c r="W36" s="215"/>
+      <c r="S36" s="161"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="160"/>
+      <c r="V36" s="161"/>
+      <c r="W36" s="161"/>
       <c r="X36" s="77"/>
       <c r="Y36" s="77"/>
       <c r="Z36" s="77"/>
@@ -7723,7 +7661,7 @@
       <c r="AN36" s="48"/>
     </row>
     <row r="37" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="194"/>
+      <c r="A37" s="158"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="33"/>
@@ -7735,17 +7673,17 @@
       <c r="J37" s="35"/>
       <c r="K37" s="35"/>
       <c r="L37" s="36"/>
-      <c r="M37" s="202"/>
-      <c r="N37" s="203"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="150"/>
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
-      <c r="S37" s="203"/>
-      <c r="T37" s="204"/>
-      <c r="U37" s="202"/>
-      <c r="V37" s="203"/>
-      <c r="W37" s="203"/>
+      <c r="S37" s="150"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="152"/>
+      <c r="V37" s="150"/>
+      <c r="W37" s="150"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
       <c r="Z37" s="35"/>
@@ -7765,7 +7703,7 @@
       <c r="AN37" s="39"/>
     </row>
     <row r="38" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="194"/>
+      <c r="A38" s="158"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="28"/>
@@ -7777,17 +7715,17 @@
       <c r="J38" s="78"/>
       <c r="K38" s="78"/>
       <c r="L38" s="30"/>
-      <c r="M38" s="199"/>
-      <c r="N38" s="200"/>
+      <c r="M38" s="166"/>
+      <c r="N38" s="167"/>
       <c r="O38" s="78"/>
       <c r="P38" s="78"/>
       <c r="Q38" s="78"/>
       <c r="R38" s="78"/>
-      <c r="S38" s="200"/>
-      <c r="T38" s="201"/>
-      <c r="U38" s="199"/>
-      <c r="V38" s="200"/>
-      <c r="W38" s="200"/>
+      <c r="S38" s="167"/>
+      <c r="T38" s="168"/>
+      <c r="U38" s="166"/>
+      <c r="V38" s="167"/>
+      <c r="W38" s="167"/>
       <c r="X38" s="78"/>
       <c r="Y38" s="78"/>
       <c r="Z38" s="78"/>
@@ -7807,7 +7745,7 @@
       <c r="AN38" s="31"/>
     </row>
     <row r="39" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="194"/>
+      <c r="A39" s="158"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="33"/>
@@ -7819,17 +7757,17 @@
       <c r="J39" s="35"/>
       <c r="K39" s="35"/>
       <c r="L39" s="36"/>
-      <c r="M39" s="202"/>
-      <c r="N39" s="203"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="150"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
-      <c r="S39" s="203"/>
-      <c r="T39" s="204"/>
-      <c r="U39" s="202"/>
-      <c r="V39" s="203"/>
-      <c r="W39" s="203"/>
+      <c r="S39" s="150"/>
+      <c r="T39" s="151"/>
+      <c r="U39" s="152"/>
+      <c r="V39" s="150"/>
+      <c r="W39" s="150"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
       <c r="Z39" s="35"/>
@@ -7849,7 +7787,7 @@
       <c r="AN39" s="39"/>
     </row>
     <row r="40" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="194"/>
+      <c r="A40" s="158"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
@@ -7861,17 +7799,17 @@
       <c r="J40" s="78"/>
       <c r="K40" s="78"/>
       <c r="L40" s="30"/>
-      <c r="M40" s="199"/>
-      <c r="N40" s="200"/>
+      <c r="M40" s="166"/>
+      <c r="N40" s="167"/>
       <c r="O40" s="78"/>
       <c r="P40" s="78"/>
       <c r="Q40" s="78"/>
       <c r="R40" s="78"/>
-      <c r="S40" s="200"/>
-      <c r="T40" s="201"/>
-      <c r="U40" s="199"/>
-      <c r="V40" s="200"/>
-      <c r="W40" s="200"/>
+      <c r="S40" s="167"/>
+      <c r="T40" s="168"/>
+      <c r="U40" s="166"/>
+      <c r="V40" s="167"/>
+      <c r="W40" s="167"/>
       <c r="X40" s="78"/>
       <c r="Y40" s="78"/>
       <c r="Z40" s="78"/>
@@ -7891,7 +7829,7 @@
       <c r="AN40" s="31"/>
     </row>
     <row r="41" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="195"/>
+      <c r="A41" s="159"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
       <c r="D41" s="41"/>
@@ -7903,17 +7841,17 @@
       <c r="J41" s="52"/>
       <c r="K41" s="52"/>
       <c r="L41" s="53"/>
-      <c r="M41" s="211"/>
-      <c r="N41" s="212"/>
+      <c r="M41" s="169"/>
+      <c r="N41" s="170"/>
       <c r="O41" s="52"/>
       <c r="P41" s="52"/>
       <c r="Q41" s="52"/>
       <c r="R41" s="52"/>
-      <c r="S41" s="212"/>
-      <c r="T41" s="213"/>
-      <c r="U41" s="211"/>
-      <c r="V41" s="212"/>
-      <c r="W41" s="212"/>
+      <c r="S41" s="170"/>
+      <c r="T41" s="171"/>
+      <c r="U41" s="169"/>
+      <c r="V41" s="170"/>
+      <c r="W41" s="170"/>
       <c r="X41" s="52"/>
       <c r="Y41" s="52"/>
       <c r="Z41" s="52"/>
@@ -7933,7 +7871,7 @@
       <c r="AN41" s="54"/>
     </row>
     <row r="42" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="193" t="s">
+      <c r="A42" s="157" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="44"/>
@@ -7947,17 +7885,17 @@
       <c r="J42" s="77"/>
       <c r="K42" s="77"/>
       <c r="L42" s="47"/>
-      <c r="M42" s="214"/>
-      <c r="N42" s="215"/>
+      <c r="M42" s="160"/>
+      <c r="N42" s="161"/>
       <c r="O42" s="77"/>
       <c r="P42" s="77"/>
       <c r="Q42" s="77"/>
       <c r="R42" s="77"/>
-      <c r="S42" s="215"/>
-      <c r="T42" s="216"/>
-      <c r="U42" s="214"/>
-      <c r="V42" s="215"/>
-      <c r="W42" s="215"/>
+      <c r="S42" s="161"/>
+      <c r="T42" s="162"/>
+      <c r="U42" s="160"/>
+      <c r="V42" s="161"/>
+      <c r="W42" s="161"/>
       <c r="X42" s="77"/>
       <c r="Y42" s="77"/>
       <c r="Z42" s="77"/>
@@ -7977,7 +7915,7 @@
       <c r="AN42" s="48"/>
     </row>
     <row r="43" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="194"/>
+      <c r="A43" s="158"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="49"/>
@@ -7989,17 +7927,17 @@
       <c r="J43" s="35"/>
       <c r="K43" s="35"/>
       <c r="L43" s="36"/>
-      <c r="M43" s="202"/>
-      <c r="N43" s="203"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="150"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
       <c r="R43" s="35"/>
-      <c r="S43" s="203"/>
-      <c r="T43" s="204"/>
-      <c r="U43" s="202"/>
-      <c r="V43" s="203"/>
-      <c r="W43" s="203"/>
+      <c r="S43" s="150"/>
+      <c r="T43" s="151"/>
+      <c r="U43" s="152"/>
+      <c r="V43" s="150"/>
+      <c r="W43" s="150"/>
       <c r="X43" s="35"/>
       <c r="Y43" s="35"/>
       <c r="Z43" s="35"/>
@@ -8019,7 +7957,7 @@
       <c r="AN43" s="39"/>
     </row>
     <row r="44" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="194"/>
+      <c r="A44" s="158"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="28"/>
@@ -8031,17 +7969,17 @@
       <c r="J44" s="78"/>
       <c r="K44" s="78"/>
       <c r="L44" s="30"/>
-      <c r="M44" s="199"/>
-      <c r="N44" s="200"/>
+      <c r="M44" s="166"/>
+      <c r="N44" s="167"/>
       <c r="O44" s="78"/>
       <c r="P44" s="78"/>
       <c r="Q44" s="78"/>
       <c r="R44" s="78"/>
-      <c r="S44" s="200"/>
-      <c r="T44" s="201"/>
-      <c r="U44" s="199"/>
-      <c r="V44" s="200"/>
-      <c r="W44" s="200"/>
+      <c r="S44" s="167"/>
+      <c r="T44" s="168"/>
+      <c r="U44" s="166"/>
+      <c r="V44" s="167"/>
+      <c r="W44" s="167"/>
       <c r="X44" s="78"/>
       <c r="Y44" s="78"/>
       <c r="Z44" s="78"/>
@@ -8061,7 +7999,7 @@
       <c r="AN44" s="31"/>
     </row>
     <row r="45" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="195"/>
+      <c r="A45" s="159"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="50"/>
@@ -8073,17 +8011,17 @@
       <c r="J45" s="52"/>
       <c r="K45" s="52"/>
       <c r="L45" s="53"/>
-      <c r="M45" s="211"/>
-      <c r="N45" s="212"/>
+      <c r="M45" s="169"/>
+      <c r="N45" s="170"/>
       <c r="O45" s="52"/>
       <c r="P45" s="52"/>
       <c r="Q45" s="52"/>
       <c r="R45" s="52"/>
-      <c r="S45" s="212"/>
-      <c r="T45" s="213"/>
-      <c r="U45" s="211"/>
-      <c r="V45" s="212"/>
-      <c r="W45" s="212"/>
+      <c r="S45" s="170"/>
+      <c r="T45" s="171"/>
+      <c r="U45" s="169"/>
+      <c r="V45" s="170"/>
+      <c r="W45" s="170"/>
       <c r="X45" s="52"/>
       <c r="Y45" s="52"/>
       <c r="Z45" s="52"/>
@@ -8115,17 +8053,17 @@
       <c r="J46" s="99"/>
       <c r="K46" s="99"/>
       <c r="L46" s="99"/>
-      <c r="M46" s="227"/>
-      <c r="N46" s="227"/>
+      <c r="M46" s="156"/>
+      <c r="N46" s="156"/>
       <c r="O46" s="99"/>
       <c r="P46" s="99"/>
       <c r="Q46" s="99"/>
       <c r="R46" s="99"/>
       <c r="S46" s="99"/>
       <c r="T46" s="99"/>
-      <c r="U46" s="227"/>
-      <c r="V46" s="227"/>
-      <c r="W46" s="227"/>
+      <c r="U46" s="156"/>
+      <c r="V46" s="156"/>
+      <c r="W46" s="156"/>
       <c r="X46" s="99"/>
       <c r="Y46" s="99"/>
       <c r="Z46" s="99"/>
@@ -8145,13 +8083,13 @@
       <c r="AN46" s="99"/>
     </row>
     <row r="47" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="217" t="s">
+      <c r="A47" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="123"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="218"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="163"/>
       <c r="F47" s="79"/>
       <c r="G47" s="46"/>
       <c r="H47" s="77"/>
@@ -8159,17 +8097,17 @@
       <c r="J47" s="77"/>
       <c r="K47" s="77"/>
       <c r="L47" s="47"/>
-      <c r="M47" s="214"/>
-      <c r="N47" s="215"/>
+      <c r="M47" s="160"/>
+      <c r="N47" s="161"/>
       <c r="O47" s="77"/>
       <c r="P47" s="77"/>
       <c r="Q47" s="77"/>
       <c r="R47" s="77"/>
-      <c r="S47" s="215"/>
-      <c r="T47" s="216"/>
-      <c r="U47" s="214"/>
-      <c r="V47" s="215"/>
-      <c r="W47" s="215"/>
+      <c r="S47" s="161"/>
+      <c r="T47" s="162"/>
+      <c r="U47" s="160"/>
+      <c r="V47" s="161"/>
+      <c r="W47" s="161"/>
       <c r="X47" s="77"/>
       <c r="Y47" s="77"/>
       <c r="Z47" s="77"/>
@@ -8189,11 +8127,11 @@
       <c r="AN47" s="48"/>
     </row>
     <row r="48" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="219"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="220"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="164"/>
       <c r="F48" s="80"/>
       <c r="G48" s="55"/>
       <c r="H48" s="56"/>
@@ -8201,17 +8139,17 @@
       <c r="J48" s="56"/>
       <c r="K48" s="56"/>
       <c r="L48" s="57"/>
-      <c r="M48" s="202"/>
-      <c r="N48" s="203"/>
+      <c r="M48" s="152"/>
+      <c r="N48" s="150"/>
       <c r="O48" s="56"/>
       <c r="P48" s="56"/>
       <c r="Q48" s="56"/>
       <c r="R48" s="56"/>
-      <c r="S48" s="203"/>
-      <c r="T48" s="204"/>
-      <c r="U48" s="202"/>
-      <c r="V48" s="203"/>
-      <c r="W48" s="203"/>
+      <c r="S48" s="150"/>
+      <c r="T48" s="151"/>
+      <c r="U48" s="152"/>
+      <c r="V48" s="150"/>
+      <c r="W48" s="150"/>
       <c r="X48" s="56"/>
       <c r="Y48" s="56"/>
       <c r="Z48" s="56"/>
@@ -8231,11 +8169,11 @@
       <c r="AN48" s="59"/>
     </row>
     <row r="49" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="219"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="220"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="164"/>
       <c r="F49" s="81"/>
       <c r="G49" s="29"/>
       <c r="H49" s="78"/>
@@ -8243,17 +8181,17 @@
       <c r="J49" s="78"/>
       <c r="K49" s="78"/>
       <c r="L49" s="30"/>
-      <c r="M49" s="199"/>
-      <c r="N49" s="200"/>
+      <c r="M49" s="166"/>
+      <c r="N49" s="167"/>
       <c r="O49" s="78"/>
       <c r="P49" s="78"/>
       <c r="Q49" s="78"/>
       <c r="R49" s="78"/>
-      <c r="S49" s="200"/>
-      <c r="T49" s="201"/>
-      <c r="U49" s="199"/>
-      <c r="V49" s="200"/>
-      <c r="W49" s="200"/>
+      <c r="S49" s="167"/>
+      <c r="T49" s="168"/>
+      <c r="U49" s="166"/>
+      <c r="V49" s="167"/>
+      <c r="W49" s="167"/>
       <c r="X49" s="78"/>
       <c r="Y49" s="78"/>
       <c r="Z49" s="78"/>
@@ -8273,11 +8211,11 @@
       <c r="AN49" s="31"/>
     </row>
     <row r="50" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="219"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="220"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="164"/>
       <c r="F50" s="80"/>
       <c r="G50" s="55"/>
       <c r="H50" s="56"/>
@@ -8285,17 +8223,17 @@
       <c r="J50" s="56"/>
       <c r="K50" s="56"/>
       <c r="L50" s="57"/>
-      <c r="M50" s="202"/>
-      <c r="N50" s="203"/>
+      <c r="M50" s="152"/>
+      <c r="N50" s="150"/>
       <c r="O50" s="56"/>
       <c r="P50" s="56"/>
       <c r="Q50" s="56"/>
       <c r="R50" s="56"/>
-      <c r="S50" s="203"/>
-      <c r="T50" s="204"/>
-      <c r="U50" s="202"/>
-      <c r="V50" s="203"/>
-      <c r="W50" s="203"/>
+      <c r="S50" s="150"/>
+      <c r="T50" s="151"/>
+      <c r="U50" s="152"/>
+      <c r="V50" s="150"/>
+      <c r="W50" s="150"/>
       <c r="X50" s="56"/>
       <c r="Y50" s="56"/>
       <c r="Z50" s="56"/>
@@ -8315,11 +8253,11 @@
       <c r="AN50" s="59"/>
     </row>
     <row r="51" spans="1:60" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="221"/>
-      <c r="B51" s="222"/>
-      <c r="C51" s="222"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="223"/>
+      <c r="A51" s="129"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="165"/>
       <c r="F51" s="82"/>
       <c r="G51" s="96"/>
       <c r="H51" s="76"/>
@@ -8327,17 +8265,17 @@
       <c r="J51" s="76"/>
       <c r="K51" s="76"/>
       <c r="L51" s="97"/>
-      <c r="M51" s="224"/>
-      <c r="N51" s="225"/>
+      <c r="M51" s="153"/>
+      <c r="N51" s="154"/>
       <c r="O51" s="76"/>
       <c r="P51" s="76"/>
       <c r="Q51" s="76"/>
       <c r="R51" s="76"/>
-      <c r="S51" s="225"/>
-      <c r="T51" s="226"/>
-      <c r="U51" s="224"/>
-      <c r="V51" s="225"/>
-      <c r="W51" s="225"/>
+      <c r="S51" s="154"/>
+      <c r="T51" s="155"/>
+      <c r="U51" s="153"/>
+      <c r="V51" s="154"/>
+      <c r="W51" s="154"/>
       <c r="X51" s="76"/>
       <c r="Y51" s="76"/>
       <c r="Z51" s="76"/>
@@ -8358,104 +8296,104 @@
     </row>
     <row r="52" spans="1:60" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="250" t="s">
+      <c r="A53" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="271">
+      <c r="B53" s="107">
         <v>13</v>
       </c>
-      <c r="C53" s="272"/>
-      <c r="D53" s="253" t="s">
+      <c r="C53" s="108"/>
+      <c r="D53" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="254"/>
-      <c r="F53" s="254"/>
-      <c r="G53" s="254"/>
-      <c r="H53" s="254"/>
-      <c r="I53" s="254"/>
-      <c r="J53" s="254"/>
-      <c r="K53" s="254"/>
-      <c r="L53" s="254"/>
-      <c r="M53" s="254"/>
-      <c r="N53" s="254"/>
-      <c r="O53" s="254"/>
-      <c r="P53" s="254"/>
-      <c r="Q53" s="254"/>
-      <c r="R53" s="254"/>
-      <c r="S53" s="254"/>
-      <c r="T53" s="254"/>
-      <c r="U53" s="254"/>
-      <c r="V53" s="254"/>
-      <c r="W53" s="254"/>
-      <c r="X53" s="254"/>
-      <c r="Y53" s="254"/>
-      <c r="Z53" s="254"/>
-      <c r="AA53" s="254"/>
-      <c r="AB53" s="254"/>
-      <c r="AC53" s="254"/>
-      <c r="AD53" s="255"/>
-      <c r="AE53" s="250" t="s">
+      <c r="E53" s="141"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="141"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="141"/>
+      <c r="J53" s="141"/>
+      <c r="K53" s="141"/>
+      <c r="L53" s="141"/>
+      <c r="M53" s="141"/>
+      <c r="N53" s="141"/>
+      <c r="O53" s="141"/>
+      <c r="P53" s="141"/>
+      <c r="Q53" s="141"/>
+      <c r="R53" s="141"/>
+      <c r="S53" s="141"/>
+      <c r="T53" s="141"/>
+      <c r="U53" s="141"/>
+      <c r="V53" s="141"/>
+      <c r="W53" s="141"/>
+      <c r="X53" s="141"/>
+      <c r="Y53" s="141"/>
+      <c r="Z53" s="141"/>
+      <c r="AA53" s="141"/>
+      <c r="AB53" s="141"/>
+      <c r="AC53" s="141"/>
+      <c r="AD53" s="142"/>
+      <c r="AE53" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="AF53" s="256">
+      <c r="AF53" s="143">
         <v>34</v>
       </c>
-      <c r="AG53" s="217" t="s">
+      <c r="AG53" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AH53" s="123"/>
-      <c r="AI53" s="123"/>
-      <c r="AJ53" s="123"/>
-      <c r="AK53" s="123"/>
-      <c r="AL53" s="123"/>
-      <c r="AM53" s="123"/>
-      <c r="AN53" s="124"/>
+      <c r="AH53" s="145"/>
+      <c r="AI53" s="145"/>
+      <c r="AJ53" s="145"/>
+      <c r="AK53" s="145"/>
+      <c r="AL53" s="145"/>
+      <c r="AM53" s="145"/>
+      <c r="AN53" s="146"/>
     </row>
     <row r="54" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="251"/>
-      <c r="B54" s="273">
+      <c r="A54" s="138"/>
+      <c r="B54" s="109">
         <v>16</v>
       </c>
-      <c r="C54" s="274"/>
-      <c r="D54" s="228" t="s">
+      <c r="C54" s="110"/>
+      <c r="D54" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="229"/>
-      <c r="F54" s="229"/>
-      <c r="G54" s="229"/>
-      <c r="H54" s="229"/>
-      <c r="I54" s="229"/>
-      <c r="J54" s="229"/>
-      <c r="K54" s="229"/>
-      <c r="L54" s="229"/>
-      <c r="M54" s="229"/>
-      <c r="N54" s="229"/>
-      <c r="O54" s="229"/>
-      <c r="P54" s="229"/>
-      <c r="Q54" s="229"/>
-      <c r="R54" s="229"/>
-      <c r="S54" s="229"/>
-      <c r="T54" s="229"/>
-      <c r="U54" s="229"/>
-      <c r="V54" s="229"/>
-      <c r="W54" s="229"/>
-      <c r="X54" s="229"/>
-      <c r="Y54" s="229"/>
-      <c r="Z54" s="229"/>
-      <c r="AA54" s="229"/>
-      <c r="AB54" s="229"/>
-      <c r="AC54" s="229"/>
-      <c r="AD54" s="230"/>
-      <c r="AE54" s="251"/>
-      <c r="AF54" s="231"/>
-      <c r="AG54" s="232"/>
-      <c r="AH54" s="233"/>
-      <c r="AI54" s="233"/>
-      <c r="AJ54" s="233"/>
-      <c r="AK54" s="233"/>
-      <c r="AL54" s="233"/>
-      <c r="AM54" s="233"/>
-      <c r="AN54" s="234"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
+      <c r="J54" s="148"/>
+      <c r="K54" s="148"/>
+      <c r="L54" s="148"/>
+      <c r="M54" s="148"/>
+      <c r="N54" s="148"/>
+      <c r="O54" s="148"/>
+      <c r="P54" s="148"/>
+      <c r="Q54" s="148"/>
+      <c r="R54" s="148"/>
+      <c r="S54" s="148"/>
+      <c r="T54" s="148"/>
+      <c r="U54" s="148"/>
+      <c r="V54" s="148"/>
+      <c r="W54" s="148"/>
+      <c r="X54" s="148"/>
+      <c r="Y54" s="148"/>
+      <c r="Z54" s="148"/>
+      <c r="AA54" s="148"/>
+      <c r="AB54" s="148"/>
+      <c r="AC54" s="148"/>
+      <c r="AD54" s="149"/>
+      <c r="AE54" s="138"/>
+      <c r="AF54" s="124"/>
+      <c r="AG54" s="116"/>
+      <c r="AH54" s="117"/>
+      <c r="AI54" s="117"/>
+      <c r="AJ54" s="117"/>
+      <c r="AK54" s="117"/>
+      <c r="AL54" s="117"/>
+      <c r="AM54" s="117"/>
+      <c r="AN54" s="118"/>
       <c r="AO54" s="89"/>
       <c r="AP54" s="89"/>
       <c r="AQ54" s="89"/>
@@ -8478,54 +8416,54 @@
       <c r="BH54" s="18"/>
     </row>
     <row r="55" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="251"/>
-      <c r="B55" s="273">
+      <c r="A55" s="138"/>
+      <c r="B55" s="109">
         <v>19</v>
       </c>
-      <c r="C55" s="274"/>
-      <c r="D55" s="228" t="s">
+      <c r="C55" s="110"/>
+      <c r="D55" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="229"/>
-      <c r="F55" s="229"/>
-      <c r="G55" s="229"/>
-      <c r="H55" s="229"/>
-      <c r="I55" s="229"/>
-      <c r="J55" s="229"/>
-      <c r="K55" s="229"/>
-      <c r="L55" s="229"/>
-      <c r="M55" s="229"/>
-      <c r="N55" s="229"/>
-      <c r="O55" s="229"/>
-      <c r="P55" s="229"/>
-      <c r="Q55" s="229"/>
-      <c r="R55" s="229"/>
-      <c r="S55" s="229"/>
-      <c r="T55" s="229"/>
-      <c r="U55" s="229"/>
-      <c r="V55" s="229"/>
-      <c r="W55" s="229"/>
-      <c r="X55" s="229"/>
-      <c r="Y55" s="229"/>
-      <c r="Z55" s="229"/>
-      <c r="AA55" s="229"/>
-      <c r="AB55" s="229"/>
-      <c r="AC55" s="229"/>
-      <c r="AD55" s="230"/>
-      <c r="AE55" s="251"/>
-      <c r="AF55" s="231">
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="148"/>
+      <c r="K55" s="148"/>
+      <c r="L55" s="148"/>
+      <c r="M55" s="148"/>
+      <c r="N55" s="148"/>
+      <c r="O55" s="148"/>
+      <c r="P55" s="148"/>
+      <c r="Q55" s="148"/>
+      <c r="R55" s="148"/>
+      <c r="S55" s="148"/>
+      <c r="T55" s="148"/>
+      <c r="U55" s="148"/>
+      <c r="V55" s="148"/>
+      <c r="W55" s="148"/>
+      <c r="X55" s="148"/>
+      <c r="Y55" s="148"/>
+      <c r="Z55" s="148"/>
+      <c r="AA55" s="148"/>
+      <c r="AB55" s="148"/>
+      <c r="AC55" s="148"/>
+      <c r="AD55" s="149"/>
+      <c r="AE55" s="138"/>
+      <c r="AF55" s="124">
         <v>35</v>
       </c>
-      <c r="AG55" s="241" t="s">
+      <c r="AG55" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="AH55" s="242"/>
-      <c r="AI55" s="242"/>
-      <c r="AJ55" s="242"/>
-      <c r="AK55" s="242"/>
-      <c r="AL55" s="242"/>
-      <c r="AM55" s="242"/>
-      <c r="AN55" s="243"/>
+      <c r="AH55" s="127"/>
+      <c r="AI55" s="127"/>
+      <c r="AJ55" s="127"/>
+      <c r="AK55" s="127"/>
+      <c r="AL55" s="127"/>
+      <c r="AM55" s="127"/>
+      <c r="AN55" s="128"/>
       <c r="AO55" s="89"/>
       <c r="AP55" s="89"/>
       <c r="AQ55" s="89"/>
@@ -8548,50 +8486,50 @@
       <c r="BH55" s="18"/>
     </row>
     <row r="56" spans="1:60" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="251"/>
-      <c r="B56" s="273">
+      <c r="A56" s="138"/>
+      <c r="B56" s="109">
         <v>23</v>
       </c>
-      <c r="C56" s="274"/>
-      <c r="D56" s="228" t="s">
+      <c r="C56" s="110"/>
+      <c r="D56" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="229"/>
-      <c r="F56" s="229"/>
-      <c r="G56" s="229"/>
-      <c r="H56" s="229"/>
-      <c r="I56" s="229"/>
-      <c r="J56" s="229"/>
-      <c r="K56" s="229"/>
-      <c r="L56" s="229"/>
-      <c r="M56" s="229"/>
-      <c r="N56" s="229"/>
-      <c r="O56" s="229"/>
-      <c r="P56" s="229"/>
-      <c r="Q56" s="229"/>
-      <c r="R56" s="229"/>
-      <c r="S56" s="229"/>
-      <c r="T56" s="229"/>
-      <c r="U56" s="229"/>
-      <c r="V56" s="229"/>
-      <c r="W56" s="229"/>
-      <c r="X56" s="229"/>
-      <c r="Y56" s="229"/>
-      <c r="Z56" s="229"/>
-      <c r="AA56" s="229"/>
-      <c r="AB56" s="229"/>
-      <c r="AC56" s="229"/>
-      <c r="AD56" s="230"/>
-      <c r="AE56" s="251"/>
-      <c r="AF56" s="231"/>
-      <c r="AG56" s="232"/>
-      <c r="AH56" s="233"/>
-      <c r="AI56" s="233"/>
-      <c r="AJ56" s="233"/>
-      <c r="AK56" s="233"/>
-      <c r="AL56" s="233"/>
-      <c r="AM56" s="233"/>
-      <c r="AN56" s="234"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="148"/>
+      <c r="K56" s="148"/>
+      <c r="L56" s="148"/>
+      <c r="M56" s="148"/>
+      <c r="N56" s="148"/>
+      <c r="O56" s="148"/>
+      <c r="P56" s="148"/>
+      <c r="Q56" s="148"/>
+      <c r="R56" s="148"/>
+      <c r="S56" s="148"/>
+      <c r="T56" s="148"/>
+      <c r="U56" s="148"/>
+      <c r="V56" s="148"/>
+      <c r="W56" s="148"/>
+      <c r="X56" s="148"/>
+      <c r="Y56" s="148"/>
+      <c r="Z56" s="148"/>
+      <c r="AA56" s="148"/>
+      <c r="AB56" s="148"/>
+      <c r="AC56" s="148"/>
+      <c r="AD56" s="149"/>
+      <c r="AE56" s="138"/>
+      <c r="AF56" s="124"/>
+      <c r="AG56" s="116"/>
+      <c r="AH56" s="117"/>
+      <c r="AI56" s="117"/>
+      <c r="AJ56" s="117"/>
+      <c r="AK56" s="117"/>
+      <c r="AL56" s="117"/>
+      <c r="AM56" s="117"/>
+      <c r="AN56" s="118"/>
       <c r="AO56" s="89"/>
       <c r="AP56" s="89"/>
       <c r="AQ56" s="89"/>
@@ -8614,54 +8552,54 @@
       <c r="BH56" s="18"/>
     </row>
     <row r="57" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="251"/>
-      <c r="B57" s="273">
+      <c r="A57" s="138"/>
+      <c r="B57" s="109">
         <v>24</v>
       </c>
-      <c r="C57" s="274"/>
-      <c r="D57" s="228" t="s">
+      <c r="C57" s="110"/>
+      <c r="D57" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="229"/>
-      <c r="F57" s="229"/>
-      <c r="G57" s="229"/>
-      <c r="H57" s="229"/>
-      <c r="I57" s="229"/>
-      <c r="J57" s="229"/>
-      <c r="K57" s="229"/>
-      <c r="L57" s="229"/>
-      <c r="M57" s="229"/>
-      <c r="N57" s="229"/>
-      <c r="O57" s="229"/>
-      <c r="P57" s="229"/>
-      <c r="Q57" s="229"/>
-      <c r="R57" s="229"/>
-      <c r="S57" s="229"/>
-      <c r="T57" s="229"/>
-      <c r="U57" s="229"/>
-      <c r="V57" s="229"/>
-      <c r="W57" s="229"/>
-      <c r="X57" s="229"/>
-      <c r="Y57" s="229"/>
-      <c r="Z57" s="229"/>
-      <c r="AA57" s="229"/>
-      <c r="AB57" s="229"/>
-      <c r="AC57" s="229"/>
-      <c r="AD57" s="230"/>
-      <c r="AE57" s="251"/>
-      <c r="AF57" s="231">
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="148"/>
+      <c r="K57" s="148"/>
+      <c r="L57" s="148"/>
+      <c r="M57" s="148"/>
+      <c r="N57" s="148"/>
+      <c r="O57" s="148"/>
+      <c r="P57" s="148"/>
+      <c r="Q57" s="148"/>
+      <c r="R57" s="148"/>
+      <c r="S57" s="148"/>
+      <c r="T57" s="148"/>
+      <c r="U57" s="148"/>
+      <c r="V57" s="148"/>
+      <c r="W57" s="148"/>
+      <c r="X57" s="148"/>
+      <c r="Y57" s="148"/>
+      <c r="Z57" s="148"/>
+      <c r="AA57" s="148"/>
+      <c r="AB57" s="148"/>
+      <c r="AC57" s="148"/>
+      <c r="AD57" s="149"/>
+      <c r="AE57" s="138"/>
+      <c r="AF57" s="124">
         <v>36</v>
       </c>
-      <c r="AG57" s="219" t="s">
+      <c r="AG57" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="AH57" s="126"/>
-      <c r="AI57" s="126"/>
-      <c r="AJ57" s="126"/>
-      <c r="AK57" s="126"/>
-      <c r="AL57" s="126"/>
-      <c r="AM57" s="126"/>
-      <c r="AN57" s="127"/>
+      <c r="AH57" s="114"/>
+      <c r="AI57" s="114"/>
+      <c r="AJ57" s="114"/>
+      <c r="AK57" s="114"/>
+      <c r="AL57" s="114"/>
+      <c r="AM57" s="114"/>
+      <c r="AN57" s="115"/>
       <c r="AO57" s="85"/>
       <c r="AP57" s="85"/>
       <c r="AQ57" s="85"/>
@@ -8684,159 +8622,304 @@
       <c r="BH57" s="18"/>
     </row>
     <row r="58" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="251"/>
-      <c r="B58" s="273">
+      <c r="A58" s="138"/>
+      <c r="B58" s="109">
         <v>50</v>
       </c>
-      <c r="C58" s="274"/>
-      <c r="D58" s="235" t="s">
+      <c r="C58" s="110"/>
+      <c r="D58" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="236"/>
-      <c r="F58" s="237"/>
-      <c r="G58" s="237"/>
-      <c r="H58" s="237"/>
-      <c r="I58" s="237"/>
-      <c r="J58" s="237"/>
-      <c r="K58" s="237"/>
-      <c r="L58" s="237"/>
-      <c r="M58" s="237"/>
-      <c r="N58" s="237"/>
-      <c r="O58" s="237"/>
-      <c r="P58" s="237"/>
-      <c r="Q58" s="237"/>
-      <c r="R58" s="237"/>
-      <c r="S58" s="237"/>
-      <c r="T58" s="237"/>
-      <c r="U58" s="237"/>
-      <c r="V58" s="237"/>
-      <c r="W58" s="237"/>
-      <c r="X58" s="237"/>
-      <c r="Y58" s="237"/>
-      <c r="Z58" s="237"/>
-      <c r="AA58" s="237"/>
-      <c r="AB58" s="237"/>
-      <c r="AC58" s="238"/>
-      <c r="AD58" s="239"/>
-      <c r="AE58" s="251"/>
-      <c r="AF58" s="231"/>
-      <c r="AG58" s="232"/>
-      <c r="AH58" s="233"/>
-      <c r="AI58" s="233"/>
-      <c r="AJ58" s="233"/>
-      <c r="AK58" s="233"/>
-      <c r="AL58" s="233"/>
-      <c r="AM58" s="233"/>
-      <c r="AN58" s="234"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="121"/>
+      <c r="N58" s="121"/>
+      <c r="O58" s="121"/>
+      <c r="P58" s="121"/>
+      <c r="Q58" s="121"/>
+      <c r="R58" s="121"/>
+      <c r="S58" s="121"/>
+      <c r="T58" s="121"/>
+      <c r="U58" s="121"/>
+      <c r="V58" s="121"/>
+      <c r="W58" s="121"/>
+      <c r="X58" s="121"/>
+      <c r="Y58" s="121"/>
+      <c r="Z58" s="121"/>
+      <c r="AA58" s="121"/>
+      <c r="AB58" s="121"/>
+      <c r="AC58" s="122"/>
+      <c r="AD58" s="123"/>
+      <c r="AE58" s="138"/>
+      <c r="AF58" s="124"/>
+      <c r="AG58" s="116"/>
+      <c r="AH58" s="117"/>
+      <c r="AI58" s="117"/>
+      <c r="AJ58" s="117"/>
+      <c r="AK58" s="117"/>
+      <c r="AL58" s="117"/>
+      <c r="AM58" s="117"/>
+      <c r="AN58" s="118"/>
     </row>
     <row r="59" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="251"/>
-      <c r="B59" s="273">
+      <c r="A59" s="138"/>
+      <c r="B59" s="109">
         <v>51</v>
       </c>
-      <c r="C59" s="274"/>
-      <c r="D59" s="235" t="s">
+      <c r="C59" s="110"/>
+      <c r="D59" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="236"/>
-      <c r="F59" s="237"/>
-      <c r="G59" s="237"/>
-      <c r="H59" s="237"/>
-      <c r="I59" s="237"/>
-      <c r="J59" s="237"/>
-      <c r="K59" s="237"/>
-      <c r="L59" s="237"/>
-      <c r="M59" s="237"/>
-      <c r="N59" s="237"/>
-      <c r="O59" s="237"/>
-      <c r="P59" s="237"/>
-      <c r="Q59" s="237"/>
-      <c r="R59" s="237"/>
-      <c r="S59" s="237"/>
-      <c r="T59" s="237"/>
-      <c r="U59" s="237"/>
-      <c r="V59" s="237"/>
-      <c r="W59" s="237"/>
-      <c r="X59" s="237"/>
-      <c r="Y59" s="237"/>
-      <c r="Z59" s="237"/>
-      <c r="AA59" s="237"/>
-      <c r="AB59" s="237"/>
-      <c r="AC59" s="238"/>
-      <c r="AD59" s="239"/>
-      <c r="AE59" s="251"/>
-      <c r="AF59" s="231">
+      <c r="E59" s="120"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="121"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="121"/>
+      <c r="K59" s="121"/>
+      <c r="L59" s="121"/>
+      <c r="M59" s="121"/>
+      <c r="N59" s="121"/>
+      <c r="O59" s="121"/>
+      <c r="P59" s="121"/>
+      <c r="Q59" s="121"/>
+      <c r="R59" s="121"/>
+      <c r="S59" s="121"/>
+      <c r="T59" s="121"/>
+      <c r="U59" s="121"/>
+      <c r="V59" s="121"/>
+      <c r="W59" s="121"/>
+      <c r="X59" s="121"/>
+      <c r="Y59" s="121"/>
+      <c r="Z59" s="121"/>
+      <c r="AA59" s="121"/>
+      <c r="AB59" s="121"/>
+      <c r="AC59" s="122"/>
+      <c r="AD59" s="123"/>
+      <c r="AE59" s="138"/>
+      <c r="AF59" s="124">
         <v>37</v>
       </c>
-      <c r="AG59" s="241" t="s">
+      <c r="AG59" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="AH59" s="242"/>
-      <c r="AI59" s="242"/>
-      <c r="AJ59" s="242"/>
-      <c r="AK59" s="242"/>
-      <c r="AL59" s="242"/>
-      <c r="AM59" s="242"/>
-      <c r="AN59" s="243"/>
+      <c r="AH59" s="127"/>
+      <c r="AI59" s="127"/>
+      <c r="AJ59" s="127"/>
+      <c r="AK59" s="127"/>
+      <c r="AL59" s="127"/>
+      <c r="AM59" s="127"/>
+      <c r="AN59" s="128"/>
     </row>
     <row r="60" spans="1:60" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="252"/>
-      <c r="B60" s="275">
+      <c r="A60" s="139"/>
+      <c r="B60" s="111">
         <v>52</v>
       </c>
-      <c r="C60" s="276"/>
-      <c r="D60" s="245" t="s">
+      <c r="C60" s="112"/>
+      <c r="D60" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="246"/>
-      <c r="F60" s="247"/>
-      <c r="G60" s="247"/>
-      <c r="H60" s="247"/>
-      <c r="I60" s="247"/>
-      <c r="J60" s="247"/>
-      <c r="K60" s="247"/>
-      <c r="L60" s="247"/>
-      <c r="M60" s="247"/>
-      <c r="N60" s="247"/>
-      <c r="O60" s="247"/>
-      <c r="P60" s="247"/>
-      <c r="Q60" s="247"/>
-      <c r="R60" s="247"/>
-      <c r="S60" s="247"/>
-      <c r="T60" s="247"/>
-      <c r="U60" s="247"/>
-      <c r="V60" s="247"/>
-      <c r="W60" s="247"/>
-      <c r="X60" s="247"/>
-      <c r="Y60" s="247"/>
-      <c r="Z60" s="247"/>
-      <c r="AA60" s="247"/>
-      <c r="AB60" s="247"/>
-      <c r="AC60" s="248"/>
-      <c r="AD60" s="249"/>
-      <c r="AE60" s="252"/>
-      <c r="AF60" s="240"/>
-      <c r="AG60" s="221"/>
-      <c r="AH60" s="222"/>
-      <c r="AI60" s="222"/>
-      <c r="AJ60" s="222"/>
-      <c r="AK60" s="222"/>
-      <c r="AL60" s="222"/>
-      <c r="AM60" s="222"/>
-      <c r="AN60" s="244"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
+      <c r="N60" s="134"/>
+      <c r="O60" s="134"/>
+      <c r="P60" s="134"/>
+      <c r="Q60" s="134"/>
+      <c r="R60" s="134"/>
+      <c r="S60" s="134"/>
+      <c r="T60" s="134"/>
+      <c r="U60" s="134"/>
+      <c r="V60" s="134"/>
+      <c r="W60" s="134"/>
+      <c r="X60" s="134"/>
+      <c r="Y60" s="134"/>
+      <c r="Z60" s="134"/>
+      <c r="AA60" s="134"/>
+      <c r="AB60" s="134"/>
+      <c r="AC60" s="135"/>
+      <c r="AD60" s="136"/>
+      <c r="AE60" s="139"/>
+      <c r="AF60" s="125"/>
+      <c r="AG60" s="129"/>
+      <c r="AH60" s="130"/>
+      <c r="AI60" s="130"/>
+      <c r="AJ60" s="130"/>
+      <c r="AK60" s="130"/>
+      <c r="AL60" s="130"/>
+      <c r="AM60" s="130"/>
+      <c r="AN60" s="131"/>
     </row>
   </sheetData>
   <sheetProtection password="84CA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="187">
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="AC1:AN4"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="AC5:AN9"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="A1:E9"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="S12:T18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F10:F18"/>
+    <mergeCell ref="M12:N18"/>
+    <mergeCell ref="O12:O18"/>
+    <mergeCell ref="P12:P18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R12:R18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="Q12:Q18"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="J12:J18"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D10:D20"/>
+    <mergeCell ref="E10:E20"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="D53:AD53"/>
+    <mergeCell ref="AE53:AE60"/>
+    <mergeCell ref="D57:AD57"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="A47:E51"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="D59:AD59"/>
+    <mergeCell ref="AF59:AF60"/>
+    <mergeCell ref="AG59:AN60"/>
+    <mergeCell ref="D60:AD60"/>
+    <mergeCell ref="AF53:AF54"/>
+    <mergeCell ref="AG53:AN54"/>
+    <mergeCell ref="D54:AD54"/>
+    <mergeCell ref="D55:AD55"/>
+    <mergeCell ref="AF55:AF56"/>
+    <mergeCell ref="AG55:AN56"/>
     <mergeCell ref="M11:T11"/>
     <mergeCell ref="U10:AN20"/>
     <mergeCell ref="AF57:AF58"/>
@@ -8861,160 +8944,15 @@
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="S38:T38"/>
     <mergeCell ref="U38:W38"/>
-    <mergeCell ref="AF59:AF60"/>
-    <mergeCell ref="AG59:AN60"/>
-    <mergeCell ref="D60:AD60"/>
-    <mergeCell ref="AF53:AF54"/>
-    <mergeCell ref="AG53:AN54"/>
-    <mergeCell ref="D54:AD54"/>
-    <mergeCell ref="D55:AD55"/>
-    <mergeCell ref="AF55:AF56"/>
-    <mergeCell ref="AG55:AN56"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="D53:AD53"/>
-    <mergeCell ref="AE53:AE60"/>
-    <mergeCell ref="D57:AD57"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="A47:E51"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="D59:AD59"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="A21:A35"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="D10:D20"/>
-    <mergeCell ref="E10:E20"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="Q12:Q18"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="J12:J18"/>
-    <mergeCell ref="A1:E9"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="S12:T18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F10:F18"/>
-    <mergeCell ref="M12:N18"/>
-    <mergeCell ref="O12:O18"/>
-    <mergeCell ref="P12:P18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R12:R18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="AC5:AN9"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="AC1:AN4"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="G3:K4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
